--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="295">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -776,6 +776,15 @@
     <t>12/05/2022</t>
   </si>
   <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
     <t>13/11/2009</t>
   </si>
   <si>
@@ -803,6 +812,9 @@
     <t>R315</t>
   </si>
   <si>
+    <t>R800</t>
+  </si>
+  <si>
     <t>B-25</t>
   </si>
   <si>
@@ -818,6 +830,9 @@
     <t>C-25</t>
   </si>
   <si>
+    <t>ULTRA</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -827,9 +842,6 @@
     <t>AB-13/19</t>
   </si>
   <si>
-    <t>ULTRA</t>
-  </si>
-  <si>
     <t>C-19</t>
   </si>
   <si>
@@ -840,6 +852,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>N_medidores</t>
@@ -4403,7 +4418,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4566,7 +4581,7 @@
         <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E2">
         <v>60274432</v>
@@ -4578,22 +4593,22 @@
         <v>121</v>
       </c>
       <c r="H2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" t="s">
         <v>261</v>
       </c>
-      <c r="I2" t="s">
-        <v>258</v>
-      </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L2">
         <v>2.271232876712329</v>
       </c>
       <c r="M2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N2">
         <v>0.007117292039837499</v>
@@ -4643,6 +4658,54 @@
       <c r="AC2">
         <v>-0.01509139912581338</v>
       </c>
+      <c r="AD2">
+        <v>-0.02</v>
+      </c>
+      <c r="AE2">
+        <v>-0.02</v>
+      </c>
+      <c r="AF2">
+        <v>-0.02</v>
+      </c>
+      <c r="AG2">
+        <v>-0.02</v>
+      </c>
+      <c r="AH2">
+        <v>-0.02</v>
+      </c>
+      <c r="AI2">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.02</v>
+      </c>
+      <c r="AK2">
+        <v>-0.02</v>
+      </c>
+      <c r="AL2">
+        <v>-0.02</v>
+      </c>
+      <c r="AM2">
+        <v>-0.02</v>
+      </c>
+      <c r="AN2">
+        <v>-0.02</v>
+      </c>
+      <c r="AO2">
+        <v>-0.02</v>
+      </c>
+      <c r="AP2">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.02</v>
+      </c>
+      <c r="AR2">
+        <v>-0.02</v>
+      </c>
+      <c r="AS2">
+        <v>-0.02</v>
+      </c>
       <c r="AT2">
         <v>-0.09187092431953553</v>
       </c>
@@ -4650,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -4664,7 +4727,7 @@
         <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E3">
         <v>1252181</v>
@@ -4676,22 +4739,22 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L3">
         <v>13.41369863013699</v>
       </c>
       <c r="M3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N3">
         <v>-0.04633522557134629</v>
@@ -4796,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="AV3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -4810,7 +4873,7 @@
         <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>60209133</v>
@@ -4822,22 +4885,22 @@
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L4">
         <v>4.794520547945205</v>
       </c>
       <c r="M4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N4">
         <v>-0.0221525938800527</v>
@@ -4942,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AV4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -4956,7 +5019,7 @@
         <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E5">
         <v>413560</v>
@@ -4968,22 +5031,22 @@
         <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L5">
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N5">
         <v>-0.04896253477920987</v>
@@ -5088,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:48">
@@ -5102,7 +5165,7 @@
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E6">
         <v>60177677</v>
@@ -5114,22 +5177,22 @@
         <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L6">
         <v>6.18082191780822</v>
       </c>
       <c r="M6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N6">
         <v>-0.02812248986069876</v>
@@ -5234,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="AV6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:48">
@@ -5248,7 +5311,7 @@
         <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E7">
         <v>3892942</v>
@@ -5260,22 +5323,22 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L7">
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N7">
         <v>-0.04896253477920987</v>
@@ -5380,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -5394,7 +5457,7 @@
         <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E8">
         <v>457415</v>
@@ -5406,22 +5469,22 @@
         <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L8">
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N8">
         <v>-0.04896253477920987</v>
@@ -5526,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -5540,7 +5603,7 @@
         <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E9">
         <v>1310176</v>
@@ -5552,22 +5615,22 @@
         <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L9">
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N9">
         <v>-0.04896253477920987</v>
@@ -5672,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -5686,7 +5749,7 @@
         <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E10">
         <v>406049</v>
@@ -5698,22 +5761,22 @@
         <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L10">
         <v>13.13698630136986</v>
       </c>
       <c r="M10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N10">
         <v>-0.04584525506024515</v>
@@ -5818,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -5832,7 +5895,7 @@
         <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E11">
         <v>4520541</v>
@@ -5844,22 +5907,22 @@
         <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L11">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N11">
         <v>-0.04896253477920987</v>
@@ -5964,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -5978,7 +6041,7 @@
         <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E12">
         <v>1395912</v>
@@ -5990,22 +6053,22 @@
         <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N12">
         <v>0.01708602373512184</v>
@@ -6110,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="AV12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:48">
@@ -6124,7 +6187,7 @@
         <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E13">
         <v>3936370</v>
@@ -6136,22 +6199,22 @@
         <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L13">
         <v>1.983561643835617</v>
       </c>
       <c r="M13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N13">
         <v>0.01730402805126439</v>
@@ -6256,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="AV13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -6270,7 +6333,7 @@
         <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>60058696</v>
@@ -6282,22 +6345,22 @@
         <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L14">
         <v>2.476712328767123</v>
       </c>
       <c r="M14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N14">
         <v>0.006776342712931059</v>
@@ -6347,6 +6410,54 @@
       <c r="AC14">
         <v>-0.01261484408687026</v>
       </c>
+      <c r="AD14">
+        <v>-0.02</v>
+      </c>
+      <c r="AE14">
+        <v>-0.02</v>
+      </c>
+      <c r="AF14">
+        <v>-0.02</v>
+      </c>
+      <c r="AG14">
+        <v>-0.02</v>
+      </c>
+      <c r="AH14">
+        <v>-0.02</v>
+      </c>
+      <c r="AI14">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.02</v>
+      </c>
+      <c r="AK14">
+        <v>-0.02</v>
+      </c>
+      <c r="AL14">
+        <v>-0.02</v>
+      </c>
+      <c r="AM14">
+        <v>-0.02</v>
+      </c>
+      <c r="AN14">
+        <v>-0.02</v>
+      </c>
+      <c r="AO14">
+        <v>-0.02</v>
+      </c>
+      <c r="AP14">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ14">
+        <v>-0.02</v>
+      </c>
+      <c r="AR14">
+        <v>-0.02</v>
+      </c>
+      <c r="AS14">
+        <v>-0.02</v>
+      </c>
       <c r="AT14">
         <v>-0.127883926234053</v>
       </c>
@@ -6354,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:48">
@@ -6368,7 +6479,7 @@
         <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E15">
         <v>4565068</v>
@@ -6380,22 +6491,22 @@
         <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L15">
         <v>0.8849315068493151</v>
       </c>
       <c r="M15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N15">
         <v>0.03862436956382281</v>
@@ -6500,402 +6611,450 @@
         <v>1</v>
       </c>
       <c r="AV15" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E16">
-        <v>1218441</v>
+        <v>345317</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L16">
-        <v>13.38630136986301</v>
+        <v>1.117808219178082</v>
       </c>
       <c r="M16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N16">
-        <v>-0.04628716665981197</v>
+        <v>-0.02</v>
       </c>
       <c r="O16">
-        <v>-0.04798509368362156</v>
+        <v>-0.02</v>
       </c>
       <c r="P16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Q16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="R16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="S16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="T16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="U16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="V16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="W16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="X16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Y16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Z16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AA16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AB16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AC16">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AD16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AE16">
-        <v>-0.03503863675043723</v>
+        <v>-0.02</v>
       </c>
       <c r="AF16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AG16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AH16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AI16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AK16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AL16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AM16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AN16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AO16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AP16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AR16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AS16">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AT16">
-        <v>0.09706730378724263</v>
+        <v>2.530612244897959</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E17">
-        <v>60055924</v>
+        <v>941780</v>
       </c>
       <c r="F17">
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L17">
-        <v>10.01369863013699</v>
+        <v>2.191780821917808</v>
       </c>
       <c r="M17" t="s">
         <v>270</v>
       </c>
       <c r="N17">
-        <v>-0.03946400935227341</v>
+        <v>-0.02</v>
       </c>
       <c r="O17">
-        <v>-0.04170725587089447</v>
+        <v>-0.02</v>
       </c>
       <c r="P17">
-        <v>-0.04374958793004801</v>
+        <v>-0.02</v>
       </c>
       <c r="Q17">
-        <v>-0.04562856661191542</v>
+        <v>-0.02</v>
       </c>
       <c r="R17">
-        <v>-0.04736839890979524</v>
+        <v>-0.02</v>
       </c>
       <c r="S17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="T17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="U17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="V17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="W17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="X17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Y17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Z17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AA17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AB17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AC17">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AD17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AE17">
-        <v>-0.03756930381072473</v>
+        <v>-0.02</v>
       </c>
       <c r="AF17">
-        <v>-0.03927017866165177</v>
+        <v>-0.02</v>
       </c>
       <c r="AG17">
-        <v>-0.04083501116334636</v>
+        <v>-0.02</v>
       </c>
       <c r="AH17">
-        <v>-0.04228396114531983</v>
+        <v>-0.02</v>
       </c>
       <c r="AI17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AK17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AL17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AM17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AN17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AO17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AP17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AR17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AS17">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AT17">
-        <v>0.7395372742482074</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E18">
-        <v>60144910</v>
+        <v>941731</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L18">
-        <v>7.317808219178082</v>
+        <v>2.405479452054795</v>
       </c>
       <c r="M18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N18">
-        <v>-0.006647356104413221</v>
+        <v>-0.02</v>
       </c>
       <c r="O18">
-        <v>-0.008158156386945684</v>
+        <v>-0.02</v>
       </c>
       <c r="P18">
-        <v>-0.009493379801801163</v>
+        <v>-0.02</v>
       </c>
       <c r="Q18">
-        <v>-0.01069239212509018</v>
+        <v>-0.02</v>
       </c>
       <c r="R18">
-        <v>-0.01178042952012766</v>
+        <v>-0.02</v>
       </c>
       <c r="S18">
-        <v>-0.01277892143247003</v>
+        <v>-0.02</v>
       </c>
       <c r="T18">
-        <v>-0.01369684080868297</v>
+        <v>-0.02</v>
       </c>
       <c r="U18">
-        <v>-0.01454829609654285</v>
+        <v>-0.02</v>
       </c>
       <c r="V18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="W18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="X18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="Y18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="Z18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AA18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AB18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AC18">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AD18">
+        <v>-0.02</v>
+      </c>
+      <c r="AE18">
+        <v>-0.02</v>
+      </c>
+      <c r="AF18">
+        <v>-0.02</v>
+      </c>
+      <c r="AG18">
+        <v>-0.02</v>
+      </c>
+      <c r="AH18">
+        <v>-0.02</v>
+      </c>
+      <c r="AI18">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.02</v>
+      </c>
+      <c r="AK18">
+        <v>-0.02</v>
+      </c>
+      <c r="AL18">
+        <v>-0.02</v>
+      </c>
+      <c r="AM18">
+        <v>-0.02</v>
+      </c>
+      <c r="AN18">
+        <v>-0.02</v>
+      </c>
+      <c r="AO18">
+        <v>-0.02</v>
+      </c>
+      <c r="AP18">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ18">
+        <v>-0.02</v>
+      </c>
+      <c r="AR18">
+        <v>-0.02</v>
+      </c>
+      <c r="AS18">
+        <v>-0.02</v>
       </c>
       <c r="AT18">
-        <v>0.2475980482608367</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>13</v>
@@ -6904,40 +7063,40 @@
         <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E19">
-        <v>496678</v>
+        <v>1218441</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19">
+        <v>13.38630136986301</v>
+      </c>
+      <c r="M19" t="s">
         <v>268</v>
       </c>
-      <c r="L19">
-        <v>14.62191780821918</v>
-      </c>
-      <c r="M19" t="s">
-        <v>264</v>
-      </c>
       <c r="N19">
-        <v>-0.04836247008897316</v>
+        <v>-0.04628716665981197</v>
       </c>
       <c r="O19">
-        <v>-0.04896253477920987</v>
+        <v>-0.04798509368362156</v>
       </c>
       <c r="P19">
         <v>-0.04896253477920987</v>
@@ -6985,7 +7144,7 @@
         <v>-0.0361370479186777</v>
       </c>
       <c r="AE19">
-        <v>-0.0361370479186777</v>
+        <v>-0.03503863675043723</v>
       </c>
       <c r="AF19">
         <v>-0.0361370479186777</v>
@@ -7030,69 +7189,69 @@
         <v>-0.0361370479186777</v>
       </c>
       <c r="AT19">
-        <v>0.4573823720901941</v>
+        <v>0.09706730378724263</v>
       </c>
       <c r="AU19">
         <v>1</v>
       </c>
       <c r="AV19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E20">
-        <v>596771</v>
+        <v>60055924</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L20">
-        <v>13.88493150684931</v>
+        <v>10.01369863013699</v>
       </c>
       <c r="M20" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="N20">
-        <v>-0.04714682046984989</v>
+        <v>-0.03946400935227341</v>
       </c>
       <c r="O20">
-        <v>-0.0487858486740003</v>
+        <v>-0.04170725587089447</v>
       </c>
       <c r="P20">
-        <v>-0.04896253477920987</v>
+        <v>-0.04374958793004801</v>
       </c>
       <c r="Q20">
-        <v>-0.04896253477920987</v>
+        <v>-0.04562856661191542</v>
       </c>
       <c r="R20">
-        <v>-0.04896253477920987</v>
+        <v>-0.04736839890979524</v>
       </c>
       <c r="S20">
         <v>-0.04896253477920987</v>
@@ -7128,207 +7287,645 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AE20">
-        <v>-0.03593849478630882</v>
+        <v>-0.03756930381072473</v>
       </c>
       <c r="AF20">
-        <v>-0.0361370479186777</v>
+        <v>-0.03927017866165177</v>
       </c>
       <c r="AG20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04083501116334636</v>
       </c>
       <c r="AH20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04228396114531983</v>
       </c>
       <c r="AI20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AJ20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AK20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AL20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AM20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AN20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AO20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AP20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AQ20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AR20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AS20">
-        <v>-0.0361370479186777</v>
+        <v>-0.04361157366410478</v>
       </c>
       <c r="AT20">
-        <v>0.5442759034755772</v>
+        <v>0.7395372742482074</v>
       </c>
       <c r="AU20">
         <v>1</v>
       </c>
       <c r="AV20" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E21">
-        <v>60168413</v>
+        <v>60144910</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L21">
-        <v>6.397260273972603</v>
+        <v>7.317808219178082</v>
       </c>
       <c r="M21" t="s">
         <v>270</v>
       </c>
       <c r="N21">
+        <v>-0.006647356104413221</v>
+      </c>
+      <c r="O21">
+        <v>-0.008158156386945684</v>
+      </c>
+      <c r="P21">
+        <v>-0.009493379801801163</v>
+      </c>
+      <c r="Q21">
+        <v>-0.01069239212509018</v>
+      </c>
+      <c r="R21">
+        <v>-0.01178042952012766</v>
+      </c>
+      <c r="S21">
+        <v>-0.01277892143247003</v>
+      </c>
+      <c r="T21">
+        <v>-0.01369684080868297</v>
+      </c>
+      <c r="U21">
+        <v>-0.01454829609654285</v>
+      </c>
+      <c r="V21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="W21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="X21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="Y21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="Z21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="AA21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="AB21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="AC21">
+        <v>-0.01509139912581338</v>
+      </c>
+      <c r="AD21">
+        <v>-0.02</v>
+      </c>
+      <c r="AE21">
+        <v>-0.02</v>
+      </c>
+      <c r="AF21">
+        <v>-0.02</v>
+      </c>
+      <c r="AG21">
+        <v>-0.02</v>
+      </c>
+      <c r="AH21">
+        <v>-0.02</v>
+      </c>
+      <c r="AI21">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ21">
+        <v>-0.02</v>
+      </c>
+      <c r="AK21">
+        <v>-0.02</v>
+      </c>
+      <c r="AL21">
+        <v>-0.02</v>
+      </c>
+      <c r="AM21">
+        <v>-0.02</v>
+      </c>
+      <c r="AN21">
+        <v>-0.02</v>
+      </c>
+      <c r="AO21">
+        <v>-0.02</v>
+      </c>
+      <c r="AP21">
+        <v>-0.02</v>
+      </c>
+      <c r="AQ21">
+        <v>-0.02</v>
+      </c>
+      <c r="AR21">
+        <v>-0.02</v>
+      </c>
+      <c r="AS21">
+        <v>-0.02</v>
+      </c>
+      <c r="AT21">
+        <v>0.2475980482608367</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22">
+        <v>496678</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22">
+        <v>14.62191780821918</v>
+      </c>
+      <c r="M22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22">
+        <v>-0.04836247008897316</v>
+      </c>
+      <c r="O22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="P22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Q22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="R22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="S22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="T22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="U22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="V22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="W22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="X22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Y22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Z22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AA22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AB22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AC22">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AD22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AE22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AF22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AG22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AH22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AI22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AK22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AL22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AM22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AN22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AO22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AP22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AQ22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AR22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AS22">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AT22">
+        <v>0.4573823720901941</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23">
+        <v>596771</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23">
+        <v>13.88493150684931</v>
+      </c>
+      <c r="M23" t="s">
+        <v>268</v>
+      </c>
+      <c r="N23">
+        <v>-0.04714682046984989</v>
+      </c>
+      <c r="O23">
+        <v>-0.0487858486740003</v>
+      </c>
+      <c r="P23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Q23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="R23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="S23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="T23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="U23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="V23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="W23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="X23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Y23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Z23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AA23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AB23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AC23">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AD23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AE23">
+        <v>-0.03593849478630882</v>
+      </c>
+      <c r="AF23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AG23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AH23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AI23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AK23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AL23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AM23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AN23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AO23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AP23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AQ23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AR23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AS23">
+        <v>-0.0361370479186777</v>
+      </c>
+      <c r="AT23">
+        <v>0.5442759034755772</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24">
+        <v>60168413</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24">
+        <v>6.397260273972603</v>
+      </c>
+      <c r="M24" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24">
         <v>-0.02893151889286374</v>
       </c>
-      <c r="O21">
+      <c r="O24">
         <v>-0.03235417441917252</v>
       </c>
-      <c r="P21">
+      <c r="P24">
         <v>-0.03533355000116906</v>
       </c>
-      <c r="Q21">
+      <c r="Q24">
         <v>-0.03797741310063497</v>
       </c>
-      <c r="R21">
+      <c r="R24">
         <v>-0.04035373853564519</v>
       </c>
-      <c r="S21">
+      <c r="S24">
         <v>-0.04251737891437576</v>
       </c>
-      <c r="T21">
+      <c r="T24">
         <v>-0.04449334803022762</v>
       </c>
-      <c r="U21">
+      <c r="U24">
         <v>-0.0463160137963143</v>
       </c>
-      <c r="V21">
+      <c r="V24">
         <v>-0.04800746080439115</v>
       </c>
-      <c r="W21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="X21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="Y21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="Z21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AA21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC21">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AD21">
+      <c r="W24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="X24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Y24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="Z24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AA24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AB24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AC24">
+        <v>-0.04896253477920987</v>
+      </c>
+      <c r="AD24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AE21">
+      <c r="AE24">
         <v>-0.02977996272458456</v>
       </c>
-      <c r="AF21">
+      <c r="AF24">
         <v>-0.03226121692424899</v>
       </c>
-      <c r="AG21">
+      <c r="AG24">
         <v>-0.03446305292590255</v>
       </c>
-      <c r="AH21">
+      <c r="AH24">
         <v>-0.03644208084739651</v>
       </c>
-      <c r="AI21">
+      <c r="AI24">
         <v>-0.03824398249710099</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ24">
         <v>-0.03988958961583459</v>
       </c>
-      <c r="AK21">
+      <c r="AK24">
         <v>-0.04140752415017635</v>
       </c>
-      <c r="AL21">
+      <c r="AL24">
         <v>-0.04281617837210835</v>
       </c>
-      <c r="AM21">
+      <c r="AM24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AN21">
+      <c r="AN24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AO21">
+      <c r="AO24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AP21">
+      <c r="AP24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AR21">
+      <c r="AR24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AS21">
+      <c r="AS24">
         <v>-0.04361157366410478</v>
       </c>
-      <c r="AT21">
+      <c r="AT24">
         <v>0.3277283878667971</v>
       </c>
-      <c r="AU21">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>273</v>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7352,34 +7949,34 @@
         <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7390,34 +7987,34 @@
         <v>121</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>9.626418786692758</v>
+        <v>8.263819500402901</v>
       </c>
       <c r="E2">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="F2">
-        <v>3.045636329696092</v>
+        <v>6.576248574594051</v>
       </c>
       <c r="G2">
-        <v>-7.220844176944153</v>
+        <v>-3.690231932046194</v>
       </c>
       <c r="H2">
-        <v>6.479401864686803</v>
+        <v>10.01001410958476</v>
       </c>
       <c r="I2">
-        <v>-0.01492625073723687</v>
+        <v>-0.01727971359017978</v>
       </c>
       <c r="J2">
-        <v>0.03726326573296496</v>
+        <v>0.009965256793790588</v>
       </c>
       <c r="K2">
-        <v>-0.03122913314022622</v>
+        <v>-0.02606706528941771</v>
       </c>
       <c r="L2">
-        <v>0.06849239887319117</v>
+        <v>0.0360323220832083</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7425,34 +8022,34 @@
         <v>121</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>9.626418786692758</v>
+        <v>8.263819500402901</v>
       </c>
       <c r="E3">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="F3">
-        <v>3.045636329696092</v>
+        <v>6.576248574594051</v>
       </c>
       <c r="G3">
-        <v>-7.220844176944153</v>
+        <v>-3.690231932046194</v>
       </c>
       <c r="H3">
-        <v>6.479401864686803</v>
+        <v>10.01001410958476</v>
       </c>
       <c r="I3">
-        <v>-0.01492625073723687</v>
+        <v>-0.01727971359017978</v>
       </c>
       <c r="J3">
-        <v>0.03726326573296496</v>
+        <v>0.009965256793790588</v>
       </c>
       <c r="K3">
-        <v>-0.03122913314022622</v>
+        <v>-0.02606706528941771</v>
       </c>
       <c r="L3">
-        <v>0.006849239887319117</v>
+        <v>0.00360323220832083</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -7754,7 +8351,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7783,28 +8380,28 @@
         <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7815,25 +8412,25 @@
         <v>121</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="J2">
         <v>0.5</v>
@@ -7842,16 +8439,16 @@
         <v>10.5</v>
       </c>
       <c r="L2">
-        <v>0.030984668908323</v>
+        <v>-0.02</v>
       </c>
       <c r="M2">
-        <v>-0.04057867427553811</v>
+        <v>-0.02</v>
       </c>
       <c r="N2">
-        <v>-1.833261793707401</v>
+        <v>3.530612244897959</v>
       </c>
       <c r="O2">
-        <v>2.579991776750135</v>
+        <v>3.530612244897959</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -7865,22 +8462,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>0.5</v>
@@ -7889,16 +8486,16 @@
         <v>10.5</v>
       </c>
       <c r="L3">
-        <v>0.05370458222796941</v>
+        <v>0.030984668908323</v>
       </c>
       <c r="M3">
-        <v>-0.02671558400461935</v>
+        <v>-0.04057867427553811</v>
       </c>
       <c r="N3">
-        <v>-3.363848356387926</v>
+        <v>-1.833261793707401</v>
       </c>
       <c r="O3">
-        <v>1.811627223581525</v>
+        <v>2.579991776750135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -7912,10 +8509,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
         <v>268</v>
@@ -7927,7 +8524,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -7936,16 +8533,16 @@
         <v>10.5</v>
       </c>
       <c r="L4">
-        <v>0.030984668908323</v>
+        <v>0.05370458222796941</v>
       </c>
       <c r="M4">
-        <v>-0.04057867427553811</v>
+        <v>-0.02671558400461935</v>
       </c>
       <c r="N4">
-        <v>-1.262245825175587</v>
+        <v>-3.363848356387926</v>
       </c>
       <c r="O4">
-        <v>1.776387780713208</v>
+        <v>1.811627223581525</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -7959,22 +8556,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -7983,16 +8580,16 @@
         <v>10.5</v>
       </c>
       <c r="L5">
-        <v>0.02492292829285174</v>
+        <v>0.030984668908323</v>
       </c>
       <c r="M5">
-        <v>-0.01089519808621839</v>
+        <v>-0.04057867427553811</v>
       </c>
       <c r="N5">
-        <v>-0.3161194455340514</v>
+        <v>-1.262245825175587</v>
       </c>
       <c r="O5">
-        <v>0.1431977428951814</v>
+        <v>1.776387780713208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -8006,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -8021,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -8030,36 +8627,36 @@
         <v>10.5</v>
       </c>
       <c r="L6">
-        <v>0.02400310468506598</v>
+        <v>0.02492292829285174</v>
       </c>
       <c r="M6">
-        <v>-0.008774812662701914</v>
+        <v>-0.01089519808621839</v>
       </c>
       <c r="N6">
-        <v>-0.4453687561391871</v>
+        <v>-0.3161194455340514</v>
       </c>
       <c r="O6">
-        <v>0.1681973407467538</v>
+        <v>0.1431977428951814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8068,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>0.5</v>
@@ -8077,16 +8674,16 @@
         <v>10.5</v>
       </c>
       <c r="L7">
-        <v>0.030984668908323</v>
+        <v>0.02400310468506598</v>
       </c>
       <c r="M7">
-        <v>-0.04057867427553811</v>
+        <v>-0.008774812662701914</v>
       </c>
       <c r="N7">
-        <v>-0.06010694405598035</v>
+        <v>-0.4453687561391871</v>
       </c>
       <c r="O7">
-        <v>0.08458989431967656</v>
+        <v>0.1681973407467538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8100,14 +8697,14 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" t="s">
         <v>273</v>
       </c>
-      <c r="E8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" t="s">
-        <v>268</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
@@ -8115,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0.5</v>
@@ -8130,10 +8727,10 @@
         <v>-0.04057867427553811</v>
       </c>
       <c r="N8">
-        <v>-0.5409624965038232</v>
+        <v>-0.06010694405598035</v>
       </c>
       <c r="O8">
-        <v>0.7613090488770891</v>
+        <v>0.08458989431967656</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -8147,13 +8744,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8162,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>0.5</v>
@@ -8171,37 +8768,37 @@
         <v>10.5</v>
       </c>
       <c r="L9">
-        <v>0.02492292829285174</v>
+        <v>0.030984668908323</v>
       </c>
       <c r="M9">
-        <v>-0.01089519808621839</v>
+        <v>-0.04057867427553811</v>
       </c>
       <c r="N9">
-        <v>-0.8997245757507616</v>
+        <v>-0.5409624965038232</v>
       </c>
       <c r="O9">
-        <v>0.4075628067016702</v>
+        <v>0.7613090488770891</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" t="s">
         <v>272</v>
       </c>
-      <c r="E10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" t="s">
-        <v>268</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -8209,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J10">
         <v>0.5</v>
@@ -8218,36 +8815,36 @@
         <v>10.5</v>
       </c>
       <c r="L10">
-        <v>0.030984668908323</v>
+        <v>0.02492292829285174</v>
       </c>
       <c r="M10">
-        <v>-0.04057867427553811</v>
+        <v>-0.01089519808621839</v>
       </c>
       <c r="N10">
-        <v>-0.2704812482519116</v>
+        <v>-0.8997245757507616</v>
       </c>
       <c r="O10">
-        <v>0.3806545244385445</v>
+        <v>0.4075628067016702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8256,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <v>0.5</v>
@@ -8271,30 +8868,30 @@
         <v>-0.04057867427553811</v>
       </c>
       <c r="N11">
-        <v>-0.3305881923078919</v>
+        <v>-0.2704812482519116</v>
       </c>
       <c r="O11">
-        <v>0.4652444187582211</v>
+        <v>0.3806545244385445</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" t="s">
         <v>273</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" t="s">
-        <v>268</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8321,6 +8918,53 @@
         <v>-0.3305881923078919</v>
       </c>
       <c r="O12">
+        <v>0.4652444187582211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>10.5</v>
+      </c>
+      <c r="L13">
+        <v>0.030984668908323</v>
+      </c>
+      <c r="M13">
+        <v>-0.04057867427553811</v>
+      </c>
+      <c r="N13">
+        <v>-0.3305881923078919</v>
+      </c>
+      <c r="O13">
         <v>0.4652444187582211</v>
       </c>
     </row>

--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
@@ -734,6 +734,15 @@
     <t>DN</t>
   </si>
   <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
     <t>22/12/2020</t>
   </si>
   <si>
@@ -776,15 +785,6 @@
     <t>12/05/2022</t>
   </si>
   <si>
-    <t>16/02/2022</t>
-  </si>
-  <si>
-    <t>20/01/2021</t>
-  </si>
-  <si>
-    <t>03/11/2020</t>
-  </si>
-  <si>
     <t>13/11/2009</t>
   </si>
   <si>
@@ -803,6 +803,9 @@
     <t>07/11/2016</t>
   </si>
   <si>
+    <t>R800</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -812,7 +815,7 @@
     <t>R315</t>
   </si>
   <si>
-    <t>R800</t>
+    <t>ULTRA</t>
   </si>
   <si>
     <t>B-25</t>
@@ -830,9 +833,6 @@
     <t>C-25</t>
   </si>
   <si>
-    <t>ULTRA</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -845,6 +845,9 @@
     <t>C-19</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
@@ -852,9 +855,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>38</t>
   </si>
   <si>
     <t>N_medidores</t>
@@ -4575,7 +4575,7 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>238</v>
@@ -4584,10 +4584,10 @@
         <v>261</v>
       </c>
       <c r="E2">
-        <v>60274432</v>
+        <v>345317</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>121</v>
@@ -4596,67 +4596,67 @@
         <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L2">
-        <v>2.271232876712329</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N2">
-        <v>0.007117292039837499</v>
+        <v>-0.02</v>
       </c>
       <c r="O2">
-        <v>0.002815133124474241</v>
+        <v>-0.02</v>
       </c>
       <c r="P2">
-        <v>-0.0003206461506646691</v>
+        <v>-0.02</v>
       </c>
       <c r="Q2">
-        <v>-0.002794074509479778</v>
+        <v>-0.02</v>
       </c>
       <c r="R2">
-        <v>-0.00483674384727116</v>
+        <v>-0.02</v>
       </c>
       <c r="S2">
-        <v>-0.006581100382378358</v>
+        <v>-0.02</v>
       </c>
       <c r="T2">
-        <v>-0.008096011499679756</v>
+        <v>-0.02</v>
       </c>
       <c r="U2">
-        <v>-0.0094379181711442</v>
+        <v>-0.02</v>
       </c>
       <c r="V2">
-        <v>-0.01064231585213564</v>
+        <v>-0.02</v>
       </c>
       <c r="W2">
-        <v>-0.01173764328089111</v>
+        <v>-0.02</v>
       </c>
       <c r="X2">
-        <v>-0.01273699790796427</v>
+        <v>-0.02</v>
       </c>
       <c r="Y2">
-        <v>-0.01365806911018531</v>
+        <v>-0.02</v>
       </c>
       <c r="Z2">
-        <v>-0.0145122354503333</v>
+        <v>-0.02</v>
       </c>
       <c r="AA2">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AB2">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AC2">
-        <v>-0.01509139912581338</v>
+        <v>-0.02</v>
       </c>
       <c r="AD2">
         <v>-0.02</v>
@@ -4707,10 +4707,10 @@
         <v>-0.02</v>
       </c>
       <c r="AT2">
-        <v>-0.09187092431953553</v>
+        <v>2.530612244897959</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="s">
         <v>275</v>
@@ -4721,7 +4721,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>239</v>
@@ -4730,136 +4730,136 @@
         <v>261</v>
       </c>
       <c r="E3">
-        <v>1252181</v>
+        <v>941780</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L3">
-        <v>13.41369863013699</v>
+        <v>1.526027397260274</v>
       </c>
       <c r="M3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N3">
-        <v>-0.04633522557134629</v>
+        <v>-0.02</v>
       </c>
       <c r="O3">
-        <v>-0.04802980666161467</v>
+        <v>-0.02</v>
       </c>
       <c r="P3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Q3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="R3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="S3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="T3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="U3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="V3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="W3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="X3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Y3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Z3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AA3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AB3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AC3">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AD3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AE3">
-        <v>-0.03508888349636861</v>
+        <v>-0.02</v>
       </c>
       <c r="AF3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AG3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AH3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AI3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AK3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AL3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AM3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AN3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AO3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AP3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AR3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AS3">
-        <v>-0.0361370479186777</v>
+        <v>-0.02</v>
       </c>
       <c r="AT3">
-        <v>0.5344514078232218</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -4867,7 +4867,7 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>240</v>
@@ -4876,136 +4876,136 @@
         <v>261</v>
       </c>
       <c r="E4">
-        <v>60209133</v>
+        <v>941731</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L4">
-        <v>4.794520547945205</v>
+        <v>1.73972602739726</v>
       </c>
       <c r="M4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="N4">
-        <v>-0.0221525938800527</v>
+        <v>-0.02</v>
       </c>
       <c r="O4">
-        <v>-0.0266165839818563</v>
+        <v>-0.02</v>
       </c>
       <c r="P4">
-        <v>-0.03035712948128109</v>
+        <v>-0.02</v>
       </c>
       <c r="Q4">
-        <v>-0.03358333952552957</v>
+        <v>-0.02</v>
       </c>
       <c r="R4">
-        <v>-0.03641971193549965</v>
+        <v>-0.02</v>
       </c>
       <c r="S4">
-        <v>-0.03895695505997775</v>
+        <v>-0.02</v>
       </c>
       <c r="T4">
-        <v>-0.04124084779450402</v>
+        <v>-0.02</v>
       </c>
       <c r="U4">
-        <v>-0.04332234901306013</v>
+        <v>-0.02</v>
       </c>
       <c r="V4">
-        <v>-0.04523442751858323</v>
+        <v>-0.02</v>
       </c>
       <c r="W4">
-        <v>-0.04700726570344111</v>
+        <v>-0.02</v>
       </c>
       <c r="X4">
-        <v>-0.04865136943504261</v>
+        <v>-0.02</v>
       </c>
       <c r="Y4">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="Z4">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AA4">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AB4">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AC4">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AD4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AE4">
-        <v>-0.02500163922130701</v>
+        <v>-0.02</v>
       </c>
       <c r="AF4">
-        <v>-0.02811680344751848</v>
+        <v>-0.02</v>
       </c>
       <c r="AG4">
-        <v>-0.03080362389058822</v>
+        <v>-0.02</v>
       </c>
       <c r="AH4">
-        <v>-0.0331657835983396</v>
+        <v>-0.02</v>
       </c>
       <c r="AI4">
-        <v>-0.03527882540354973</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ4">
-        <v>-0.0371808744346856</v>
+        <v>-0.02</v>
       </c>
       <c r="AK4">
-        <v>-0.03891436975879235</v>
+        <v>-0.02</v>
       </c>
       <c r="AL4">
-        <v>-0.04050676812930528</v>
+        <v>-0.02</v>
       </c>
       <c r="AM4">
-        <v>-0.04198320574867932</v>
+        <v>-0.02</v>
       </c>
       <c r="AN4">
-        <v>-0.0433524320098365</v>
+        <v>-0.02</v>
       </c>
       <c r="AO4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AP4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AR4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AS4">
-        <v>-0.04361157366410478</v>
+        <v>-0.02</v>
       </c>
       <c r="AT4">
-        <v>0.2945078328564485</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -5013,19 +5013,19 @@
         <v>121</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E5">
-        <v>413560</v>
+        <v>60274432</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>121</v>
@@ -5034,118 +5034,118 @@
         <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>1.605479452054795</v>
       </c>
       <c r="M5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N5">
-        <v>-0.04896253477920987</v>
+        <v>-0.05048929843475818</v>
       </c>
       <c r="O5">
-        <v>-0.04896253477920987</v>
+        <v>-0.05618573589447737</v>
       </c>
       <c r="P5">
-        <v>-0.04896253477920987</v>
+        <v>-0.0600163193860011</v>
       </c>
       <c r="Q5">
-        <v>-0.04896253477920987</v>
+        <v>-0.06289430302781937</v>
       </c>
       <c r="R5">
-        <v>-0.04896253477920987</v>
+        <v>-0.06520480803827845</v>
       </c>
       <c r="S5">
-        <v>-0.04896253477920987</v>
+        <v>-0.0671351840228108</v>
       </c>
       <c r="T5">
-        <v>-0.04896253477920987</v>
+        <v>-0.06879725243281969</v>
       </c>
       <c r="U5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07024957308784695</v>
       </c>
       <c r="V5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07154214929082024</v>
       </c>
       <c r="W5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07270666601008348</v>
       </c>
       <c r="X5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07376900171283629</v>
       </c>
       <c r="Y5">
-        <v>-0.04896253477920987</v>
+        <v>-0.074740749890382</v>
       </c>
       <c r="Z5">
-        <v>-0.04896253477920987</v>
+        <v>-0.0756383214251533</v>
       </c>
       <c r="AA5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07647224188758157</v>
       </c>
       <c r="AB5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07677919490885256</v>
       </c>
       <c r="AC5">
-        <v>-0.04896253477920987</v>
+        <v>-0.07677919490885256</v>
       </c>
       <c r="AD5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07677919490885256</v>
       </c>
       <c r="AE5">
-        <v>-0.0361370479186777</v>
+        <v>-0.05618573589447737</v>
       </c>
       <c r="AF5">
-        <v>-0.0361370479186777</v>
+        <v>-0.0600163193860011</v>
       </c>
       <c r="AG5">
-        <v>-0.0361370479186777</v>
+        <v>-0.06289430302781937</v>
       </c>
       <c r="AH5">
-        <v>-0.0361370479186777</v>
+        <v>-0.06520480803827845</v>
       </c>
       <c r="AI5">
-        <v>-0.0361370479186777</v>
+        <v>-0.0671351840228108</v>
       </c>
       <c r="AJ5">
-        <v>-0.0361370479186777</v>
+        <v>-0.06879725243281969</v>
       </c>
       <c r="AK5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07024957308784695</v>
       </c>
       <c r="AL5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07154214929082024</v>
       </c>
       <c r="AM5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07270666601008348</v>
       </c>
       <c r="AN5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07376900171283629</v>
       </c>
       <c r="AO5">
-        <v>-0.0361370479186777</v>
+        <v>-0.074740749890382</v>
       </c>
       <c r="AP5">
-        <v>-0.0361370479186777</v>
+        <v>-0.0756383214251533</v>
       </c>
       <c r="AQ5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07647224188758157</v>
       </c>
       <c r="AR5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07677919490885256</v>
       </c>
       <c r="AS5">
-        <v>-0.0361370479186777</v>
+        <v>-0.07677919490885256</v>
       </c>
       <c r="AT5">
-        <v>0.7722493051497641</v>
+        <v>0.6912622243960639</v>
       </c>
       <c r="AU5">
         <v>1</v>
@@ -5159,19 +5159,19 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E6">
-        <v>60177677</v>
+        <v>1252181</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
@@ -5180,7 +5180,7 @@
         <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -5189,109 +5189,109 @@
         <v>273</v>
       </c>
       <c r="L6">
-        <v>6.18082191780822</v>
+        <v>12.74794520547945</v>
       </c>
       <c r="M6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N6">
-        <v>-0.02812248986069876</v>
+        <v>-0.1031107561695989</v>
       </c>
       <c r="O6">
-        <v>-0.03165641782081328</v>
+        <v>-0.1048858824530204</v>
       </c>
       <c r="P6">
-        <v>-0.03471995400676191</v>
+        <v>-0.1065406804703833</v>
       </c>
       <c r="Q6">
-        <v>-0.03742985986465747</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R6">
-        <v>-0.03985939239596478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S6">
-        <v>-0.04206692417585865</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T6">
-        <v>-0.04407953392651729</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U6">
-        <v>-0.04593332778983993</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V6">
-        <v>-0.04765154737684933</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC6">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE6">
-        <v>-0.02919886395325669</v>
+        <v>-0.1048858824530204</v>
       </c>
       <c r="AF6">
-        <v>-0.031750207957397</v>
+        <v>-0.1065406804703833</v>
       </c>
       <c r="AG6">
-        <v>-0.03400704503803546</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH6">
-        <v>-0.036030384368919</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI6">
-        <v>-0.03786883922263159</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ6">
-        <v>-0.03954496103361888</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK6">
-        <v>-0.04108881936302056</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL6">
-        <v>-0.04251977006019846</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS6">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT6">
-        <v>0.2604262431281192</v>
+        <v>1.264613580403317</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -5311,22 +5311,22 @@
         <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E7">
-        <v>3892942</v>
+        <v>60209133</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5335,115 +5335,115 @@
         <v>273</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>4.128767123287671</v>
       </c>
       <c r="M7" t="s">
         <v>274</v>
       </c>
       <c r="N7">
-        <v>-0.04896253477920987</v>
+        <v>-0.07661074219142525</v>
       </c>
       <c r="O7">
-        <v>-0.04896253477920987</v>
+        <v>-0.08170878970879146</v>
       </c>
       <c r="P7">
-        <v>-0.04896253477920987</v>
+        <v>-0.08590630865020346</v>
       </c>
       <c r="Q7">
-        <v>-0.04896253477920987</v>
+        <v>-0.08945758291073504</v>
       </c>
       <c r="R7">
-        <v>-0.04896253477920987</v>
+        <v>-0.09254207541109638</v>
       </c>
       <c r="S7">
-        <v>-0.04896253477920987</v>
+        <v>-0.09526836069494964</v>
       </c>
       <c r="T7">
-        <v>-0.04896253477920987</v>
+        <v>-0.09771740299229356</v>
       </c>
       <c r="U7">
-        <v>-0.04896253477920987</v>
+        <v>-0.09992940263313309</v>
       </c>
       <c r="V7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1019510284301417</v>
       </c>
       <c r="W7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1038124681427034</v>
       </c>
       <c r="X7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1055418094650553</v>
       </c>
       <c r="Y7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC7">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE7">
-        <v>-0.04361157366410478</v>
+        <v>-0.08170878970879146</v>
       </c>
       <c r="AF7">
-        <v>-0.04361157366410478</v>
+        <v>-0.08590630865020346</v>
       </c>
       <c r="AG7">
-        <v>-0.04361157366410478</v>
+        <v>-0.08945758291073504</v>
       </c>
       <c r="AH7">
-        <v>-0.04361157366410478</v>
+        <v>-0.09254207541109638</v>
       </c>
       <c r="AI7">
-        <v>-0.04361157366410478</v>
+        <v>-0.09526836069494964</v>
       </c>
       <c r="AJ7">
-        <v>-0.04361157366410478</v>
+        <v>-0.09771740299229356</v>
       </c>
       <c r="AK7">
-        <v>-0.04361157366410478</v>
+        <v>-0.09992940263313309</v>
       </c>
       <c r="AL7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1019510284301417</v>
       </c>
       <c r="AM7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1038124681427034</v>
       </c>
       <c r="AN7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1055418094650553</v>
       </c>
       <c r="AO7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS7">
-        <v>-0.04361157366410478</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT7">
-        <v>1.029665740199685</v>
+        <v>1.07856967152957</v>
       </c>
       <c r="AU7">
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -5457,22 +5457,22 @@
         <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8">
-        <v>457415</v>
+        <v>413560</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5484,112 +5484,112 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="O8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="P8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Q8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC8">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AF8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AG8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS8">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT8">
-        <v>0.2059331480399371</v>
+        <v>1.796083296781027</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -5597,28 +5597,28 @@
         <v>121</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E9">
-        <v>1310176</v>
+        <v>60177677</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -5627,115 +5627,115 @@
         <v>273</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>5.515068493150685</v>
       </c>
       <c r="M9" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N9">
-        <v>-0.04896253477920987</v>
+        <v>-0.08341573783132147</v>
       </c>
       <c r="O9">
-        <v>-0.04896253477920987</v>
+        <v>-0.08733256269963491</v>
       </c>
       <c r="P9">
-        <v>-0.04896253477920987</v>
+        <v>-0.09069755258004414</v>
       </c>
       <c r="Q9">
-        <v>-0.04896253477920987</v>
+        <v>-0.09363303651106913</v>
       </c>
       <c r="R9">
-        <v>-0.04896253477920987</v>
+        <v>-0.09624228885973561</v>
       </c>
       <c r="S9">
-        <v>-0.04896253477920987</v>
+        <v>-0.09859062220561614</v>
       </c>
       <c r="T9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1007310985196402</v>
       </c>
       <c r="U9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1026876795304324</v>
       </c>
       <c r="V9">
-        <v>-0.04896253477920987</v>
+        <v>-0.104493837747214</v>
       </c>
       <c r="W9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1061710601891372</v>
       </c>
       <c r="X9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC9">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE9">
-        <v>-0.0361370479186777</v>
+        <v>-0.08733256269963491</v>
       </c>
       <c r="AF9">
-        <v>-0.0361370479186777</v>
+        <v>-0.09069755258004414</v>
       </c>
       <c r="AG9">
-        <v>-0.0361370479186777</v>
+        <v>-0.09363303651106913</v>
       </c>
       <c r="AH9">
-        <v>-0.0361370479186777</v>
+        <v>-0.09624228885973561</v>
       </c>
       <c r="AI9">
-        <v>-0.0361370479186777</v>
+        <v>-0.09859062220561614</v>
       </c>
       <c r="AJ9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1007310985196402</v>
       </c>
       <c r="AK9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1026876795304324</v>
       </c>
       <c r="AL9">
-        <v>-0.0361370479186777</v>
+        <v>-0.104493837747214</v>
       </c>
       <c r="AM9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1061710601891372</v>
       </c>
       <c r="AN9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS9">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT9">
-        <v>0.5148328700998427</v>
+        <v>0.8190645109982641</v>
       </c>
       <c r="AU9">
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -5743,28 +5743,28 @@
         <v>121</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E10">
-        <v>406049</v>
+        <v>3892942</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -5773,115 +5773,115 @@
         <v>273</v>
       </c>
       <c r="L10">
-        <v>13.13698630136986</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N10">
-        <v>-0.04584525506024515</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="O10">
-        <v>-0.0475742486724006</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="P10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Q10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC10">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE10">
-        <v>-0.03457694473566745</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AF10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AG10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS10">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT10">
-        <v>0.1441440876442106</v>
+        <v>2.394777729041369</v>
       </c>
       <c r="AU10">
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -5895,22 +5895,22 @@
         <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E11">
-        <v>4520541</v>
+        <v>457415</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -5922,112 +5922,112 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="O11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="P11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Q11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC11">
-        <v>-0.04896253477920987</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AF11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AG11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS11">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT11">
-        <v>0.9266991661797168</v>
+        <v>0.4789555458082739</v>
       </c>
       <c r="AU11">
         <v>1</v>
       </c>
       <c r="AV11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -6044,136 +6044,136 @@
         <v>262</v>
       </c>
       <c r="E12">
-        <v>1395912</v>
+        <v>1310176</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N12">
-        <v>0.01708602373512184</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="O12">
-        <v>0.00635166994959057</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="P12">
-        <v>-0.001241341582786389</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Q12">
-        <v>-0.007131996745594137</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R12">
-        <v>-0.01194555604251909</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S12">
-        <v>-0.0160260110156118</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T12">
-        <v>-0.01955062082921017</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U12">
-        <v>-0.02265981617948949</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V12">
-        <v>-0.02544127599201792</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W12">
-        <v>-0.02796412620390244</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X12">
-        <v>-0.0302608626036002</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y12">
-        <v>-0.03237377642723904</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z12">
-        <v>-0.03433012458168842</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE12">
-        <v>0.00635166994959057</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AF12">
-        <v>-0.001241341582786389</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AG12">
-        <v>-0.007131996745594137</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH12">
-        <v>-0.01194555604251909</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI12">
-        <v>-0.0160260110156118</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ12">
-        <v>-0.01955062082921017</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK12">
-        <v>-0.02265981617948949</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL12">
-        <v>-0.02544127599201792</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM12">
-        <v>-0.02796412620390244</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN12">
-        <v>-0.0302608626036002</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO12">
-        <v>-0.03237377642723904</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP12">
-        <v>-0.03433012458168842</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS12">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT12">
-        <v>-0.6215628407495908</v>
+        <v>1.197388864520685</v>
       </c>
       <c r="AU12">
         <v>1</v>
       </c>
       <c r="AV12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:48">
@@ -6190,136 +6190,136 @@
         <v>262</v>
       </c>
       <c r="E13">
-        <v>3936370</v>
+        <v>406049</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L13">
-        <v>1.983561643835617</v>
+        <v>12.47123287671233</v>
       </c>
       <c r="M13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N13">
-        <v>0.01730402805126439</v>
+        <v>-0.1025949144685768</v>
       </c>
       <c r="O13">
-        <v>0.006496673276419035</v>
+        <v>-0.1044079462797438</v>
       </c>
       <c r="P13">
-        <v>-0.00113263893402462</v>
+        <v>-0.1060955436746831</v>
       </c>
       <c r="Q13">
-        <v>-0.007045058522173721</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R13">
-        <v>-0.01187312078770029</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S13">
-        <v>-0.01596395607782092</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T13">
-        <v>-0.01949632542186914</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U13">
-        <v>-0.02261155543578863</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V13">
-        <v>-0.02539784264755785</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W13">
-        <v>-0.02792465216461943</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X13">
-        <v>-0.03022467806866633</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y13">
-        <v>-0.03234037531884198</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z13">
-        <v>-0.03429910926731757</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA13">
-        <v>-0.03612739694802918</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB13">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC13">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD13">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE13">
-        <v>0.006496673276419035</v>
+        <v>-0.1044079462797438</v>
       </c>
       <c r="AF13">
-        <v>-0.00113263893402462</v>
+        <v>-0.1060955436746831</v>
       </c>
       <c r="AG13">
-        <v>-0.007045058522173721</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH13">
-        <v>-0.01187312078770029</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI13">
-        <v>-0.01596395607782092</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ13">
-        <v>-0.01949632542186914</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK13">
-        <v>-0.02261155543578863</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL13">
-        <v>-0.02539784264755785</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM13">
-        <v>-0.02792465216461943</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN13">
-        <v>-0.03022467806866633</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO13">
-        <v>-0.03234037531884198</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP13">
-        <v>-0.03429910926731757</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ13">
-        <v>-0.03612739694802918</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR13">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS13">
-        <v>-0.0361370479186777</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT13">
-        <v>-0.2381356861249876</v>
+        <v>0.3429719179978429</v>
       </c>
       <c r="AU13">
         <v>1</v>
       </c>
       <c r="AV13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -6327,7 +6327,7 @@
         <v>121</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>250</v>
@@ -6336,136 +6336,136 @@
         <v>262</v>
       </c>
       <c r="E14">
-        <v>60058696</v>
+        <v>4520541</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>121</v>
       </c>
       <c r="H14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
         <v>269</v>
       </c>
-      <c r="I14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14">
-        <v>2.476712328767123</v>
-      </c>
-      <c r="M14" t="s">
-        <v>270</v>
-      </c>
       <c r="N14">
-        <v>0.006776342712931059</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="O14">
-        <v>0.003116452581044551</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="P14">
-        <v>0.0003966332443102114</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Q14">
-        <v>-0.001772801839107233</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="R14">
-        <v>-0.003577547895742814</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="S14">
-        <v>-0.005126693530755275</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="T14">
-        <v>-0.006477238347422185</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="U14">
-        <v>-0.007677094091887646</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="V14">
-        <v>-0.008756537472039319</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="W14">
-        <v>-0.009740116186092274</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="X14">
-        <v>-0.01063894869326409</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Y14">
-        <v>-0.01146848862779716</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="Z14">
-        <v>-0.01223865931043298</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AA14">
-        <v>-0.01261484408687026</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AB14">
-        <v>-0.01261484408687026</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AC14">
-        <v>-0.01261484408687026</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AD14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AE14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AF14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AG14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AH14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AI14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AJ14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AK14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AL14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AM14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AN14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AO14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AP14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AQ14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AR14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AS14">
-        <v>-0.02</v>
+        <v>-0.1069346504804038</v>
       </c>
       <c r="AT14">
-        <v>-0.127883926234053</v>
+        <v>2.155299956137232</v>
       </c>
       <c r="AU14">
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:48">
@@ -6482,16 +6482,16 @@
         <v>263</v>
       </c>
       <c r="E15">
-        <v>4565068</v>
+        <v>1395912</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I15" t="s">
         <v>271</v>
@@ -6500,118 +6500,118 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L15">
-        <v>0.8849315068493151</v>
+        <v>1.334246575342466</v>
       </c>
       <c r="M15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N15">
-        <v>0.03862436956382281</v>
+        <v>-0.03280617195706982</v>
       </c>
       <c r="O15">
-        <v>0.01861287995795803</v>
+        <v>-0.04758050901879888</v>
       </c>
       <c r="P15">
-        <v>0.007383817691128558</v>
+        <v>-0.05702056829185893</v>
       </c>
       <c r="Q15">
-        <v>-0.0004708580233586113</v>
+        <v>-0.06394416954901511</v>
       </c>
       <c r="R15">
-        <v>-0.006517333184450295</v>
+        <v>-0.06942473044991739</v>
       </c>
       <c r="S15">
-        <v>-0.01144657646824946</v>
+        <v>-0.07396124965407982</v>
       </c>
       <c r="T15">
-        <v>-0.01558853348147737</v>
+        <v>-0.07784152266669329</v>
       </c>
       <c r="U15">
-        <v>-0.01916818820371855</v>
+        <v>-0.081215442719685</v>
       </c>
       <c r="V15">
-        <v>-0.02232012452088623</v>
+        <v>-0.08420681716884477</v>
       </c>
       <c r="W15">
-        <v>-0.02514304813429936</v>
+        <v>-0.08689362742882946</v>
       </c>
       <c r="X15">
-        <v>-0.02768656106108656</v>
+        <v>-0.0893385816550675</v>
       </c>
       <c r="Y15">
-        <v>-0.03000652371343666</v>
+        <v>-0.09157041575237897</v>
       </c>
       <c r="Z15">
-        <v>-0.03213907683631479</v>
+        <v>-0.09362828108290312</v>
       </c>
       <c r="AA15">
-        <v>-0.03411745716661802</v>
+        <v>-0.09553734870591413</v>
       </c>
       <c r="AB15">
-        <v>-0.03595307378016861</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AC15">
-        <v>-0.0361370479186777</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AD15">
-        <v>-0.0361370479186777</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AE15">
-        <v>0.01861287995795803</v>
+        <v>-0.04758050901879888</v>
       </c>
       <c r="AF15">
-        <v>0.007383817691128558</v>
+        <v>-0.05702056829185893</v>
       </c>
       <c r="AG15">
-        <v>-0.0004708580233586113</v>
+        <v>-0.06394416954901511</v>
       </c>
       <c r="AH15">
-        <v>-0.006517333184450295</v>
+        <v>-0.06942473044991739</v>
       </c>
       <c r="AI15">
-        <v>-0.01144657646824946</v>
+        <v>-0.07396124965407982</v>
       </c>
       <c r="AJ15">
-        <v>-0.01558853348147737</v>
+        <v>-0.07784152266669329</v>
       </c>
       <c r="AK15">
-        <v>-0.01916818820371855</v>
+        <v>-0.081215442719685</v>
       </c>
       <c r="AL15">
-        <v>-0.02232012452088623</v>
+        <v>-0.08420681716884477</v>
       </c>
       <c r="AM15">
-        <v>-0.02514304813429936</v>
+        <v>-0.08689362742882946</v>
       </c>
       <c r="AN15">
-        <v>-0.02768656106108656</v>
+        <v>-0.0893385816550675</v>
       </c>
       <c r="AO15">
-        <v>-0.03000652371343666</v>
+        <v>-0.09157041575237897</v>
       </c>
       <c r="AP15">
-        <v>-0.03213907683631479</v>
+        <v>-0.09362828108290312</v>
       </c>
       <c r="AQ15">
-        <v>-0.03411745716661802</v>
+        <v>-0.09553734870591413</v>
       </c>
       <c r="AR15">
-        <v>-0.03595307378016861</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AS15">
-        <v>-0.0361370479186777</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AT15">
-        <v>-0.5578200939966876</v>
+        <v>1.255000111888334</v>
       </c>
       <c r="AU15">
         <v>1</v>
       </c>
       <c r="AV15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:48">
@@ -6619,145 +6619,145 @@
         <v>121</v>
       </c>
       <c r="B16">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16">
-        <v>345317</v>
+        <v>3936370</v>
       </c>
       <c r="F16">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L16">
-        <v>1.117808219178082</v>
+        <v>1.317808219178082</v>
       </c>
       <c r="M16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N16">
-        <v>-0.02</v>
+        <v>-0.03247871272576161</v>
       </c>
       <c r="O16">
-        <v>-0.02</v>
+        <v>-0.04739383187172566</v>
       </c>
       <c r="P16">
-        <v>-0.02</v>
+        <v>-0.05689012503234533</v>
       </c>
       <c r="Q16">
-        <v>-0.02</v>
+        <v>-0.06384386041693474</v>
       </c>
       <c r="R16">
-        <v>-0.02</v>
+        <v>-0.06934324542991209</v>
       </c>
       <c r="S16">
-        <v>-0.02</v>
+        <v>-0.07389263998856904</v>
       </c>
       <c r="T16">
-        <v>-0.02</v>
+        <v>-0.07778229684284312</v>
       </c>
       <c r="U16">
-        <v>-0.02</v>
+        <v>-0.08116332555768535</v>
       </c>
       <c r="V16">
-        <v>-0.02</v>
+        <v>-0.08416028508451953</v>
       </c>
       <c r="W16">
-        <v>-0.02</v>
+        <v>-0.08685159924753491</v>
       </c>
       <c r="X16">
-        <v>-0.02</v>
+        <v>-0.08930027170437682</v>
       </c>
       <c r="Y16">
-        <v>-0.02</v>
+        <v>-0.09153521178487892</v>
       </c>
       <c r="Z16">
-        <v>-0.02</v>
+        <v>-0.09359571723283149</v>
       </c>
       <c r="AA16">
-        <v>-0.02</v>
+        <v>-0.09550705660813208</v>
       </c>
       <c r="AB16">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AC16">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AD16">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AE16">
-        <v>-0.02</v>
+        <v>-0.04739383187172566</v>
       </c>
       <c r="AF16">
-        <v>-0.02</v>
+        <v>-0.05689012503234533</v>
       </c>
       <c r="AG16">
-        <v>-0.02</v>
+        <v>-0.06384386041693474</v>
       </c>
       <c r="AH16">
-        <v>-0.02</v>
+        <v>-0.06934324542991209</v>
       </c>
       <c r="AI16">
-        <v>-0.02</v>
+        <v>-0.07389263998856904</v>
       </c>
       <c r="AJ16">
-        <v>-0.02</v>
+        <v>-0.07778229684284312</v>
       </c>
       <c r="AK16">
-        <v>-0.02</v>
+        <v>-0.08116332555768535</v>
       </c>
       <c r="AL16">
-        <v>-0.02</v>
+        <v>-0.08416028508451953</v>
       </c>
       <c r="AM16">
-        <v>-0.02</v>
+        <v>-0.08685159924753491</v>
       </c>
       <c r="AN16">
-        <v>-0.02</v>
+        <v>-0.08930027170437682</v>
       </c>
       <c r="AO16">
-        <v>-0.02</v>
+        <v>-0.09153521178487892</v>
       </c>
       <c r="AP16">
-        <v>-0.02</v>
+        <v>-0.09359571723283149</v>
       </c>
       <c r="AQ16">
-        <v>-0.02</v>
+        <v>-0.09550705660813208</v>
       </c>
       <c r="AR16">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AS16">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AT16">
-        <v>2.530612244897959</v>
+        <v>0.4699658644634864</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:48">
@@ -6765,19 +6765,19 @@
         <v>121</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17">
-        <v>941780</v>
+        <v>60058696</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
         <v>121</v>
@@ -6786,124 +6786,124 @@
         <v>270</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>270</v>
       </c>
       <c r="L17">
-        <v>2.191780821917808</v>
+        <v>1.810958904109589</v>
       </c>
       <c r="M17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N17">
-        <v>-0.02</v>
+        <v>-0.05154082146998134</v>
       </c>
       <c r="O17">
-        <v>-0.02</v>
+        <v>-0.05627438495321831</v>
       </c>
       <c r="P17">
-        <v>-0.02</v>
+        <v>-0.05955886864580023</v>
       </c>
       <c r="Q17">
-        <v>-0.02</v>
+        <v>-0.06206595169839012</v>
       </c>
       <c r="R17">
-        <v>-0.02</v>
+        <v>-0.06409808395398359</v>
       </c>
       <c r="S17">
-        <v>-0.02</v>
+        <v>-0.06580687397840131</v>
       </c>
       <c r="T17">
-        <v>-0.02</v>
+        <v>-0.06728500673698438</v>
       </c>
       <c r="U17">
-        <v>-0.02</v>
+        <v>-0.06858113773839268</v>
       </c>
       <c r="V17">
-        <v>-0.02</v>
+        <v>-0.0697378617524738</v>
       </c>
       <c r="W17">
-        <v>-0.02</v>
+        <v>-0.0707822759969325</v>
       </c>
       <c r="X17">
-        <v>-0.02</v>
+        <v>-0.07173676822886385</v>
       </c>
       <c r="Y17">
-        <v>-0.02</v>
+        <v>-0.07261118622479279</v>
       </c>
       <c r="Z17">
-        <v>-0.02</v>
+        <v>-0.07341988890830831</v>
       </c>
       <c r="AA17">
-        <v>-0.02</v>
+        <v>-0.07417206701552739</v>
       </c>
       <c r="AB17">
-        <v>-0.02</v>
+        <v>-0.07430263986990944</v>
       </c>
       <c r="AC17">
-        <v>-0.02</v>
+        <v>-0.07430263986990944</v>
       </c>
       <c r="AD17">
-        <v>-0.02</v>
+        <v>-0.07430263986990944</v>
       </c>
       <c r="AE17">
-        <v>-0.02</v>
+        <v>-0.05627438495321831</v>
       </c>
       <c r="AF17">
-        <v>-0.02</v>
+        <v>-0.05955886864580023</v>
       </c>
       <c r="AG17">
-        <v>-0.02</v>
+        <v>-0.06206595169839012</v>
       </c>
       <c r="AH17">
-        <v>-0.02</v>
+        <v>-0.06409808395398359</v>
       </c>
       <c r="AI17">
-        <v>-0.02</v>
+        <v>-0.06580687397840131</v>
       </c>
       <c r="AJ17">
-        <v>-0.02</v>
+        <v>-0.06728500673698438</v>
       </c>
       <c r="AK17">
-        <v>-0.02</v>
+        <v>-0.06858113773839268</v>
       </c>
       <c r="AL17">
-        <v>-0.02</v>
+        <v>-0.0697378617524738</v>
       </c>
       <c r="AM17">
-        <v>-0.02</v>
+        <v>-0.0707822759969325</v>
       </c>
       <c r="AN17">
-        <v>-0.02</v>
+        <v>-0.07173676822886385</v>
       </c>
       <c r="AO17">
-        <v>-0.02</v>
+        <v>-0.07261118622479279</v>
       </c>
       <c r="AP17">
-        <v>-0.02</v>
+        <v>-0.07341988890830831</v>
       </c>
       <c r="AQ17">
-        <v>-0.02</v>
+        <v>-0.07417206701552739</v>
       </c>
       <c r="AR17">
-        <v>-0.02</v>
+        <v>-0.07430263986990944</v>
       </c>
       <c r="AS17">
-        <v>-0.02</v>
+        <v>-0.07430263986990944</v>
       </c>
       <c r="AT17">
-        <v>0.3673469387755102</v>
+        <v>1.032491044524855</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:48">
@@ -6911,7 +6911,7 @@
         <v>121</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>254</v>
@@ -6920,136 +6920,136 @@
         <v>264</v>
       </c>
       <c r="E18">
-        <v>941731</v>
+        <v>4565068</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L18">
-        <v>2.405479452054795</v>
+        <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N18">
-        <v>-0.02</v>
+        <v>-0.006879769167127833</v>
       </c>
       <c r="O18">
-        <v>-0.02</v>
+        <v>-0.03042383379161122</v>
       </c>
       <c r="P18">
-        <v>-0.02</v>
+        <v>-0.04627777604339166</v>
       </c>
       <c r="Q18">
-        <v>-0.02</v>
+        <v>-0.05609364138287103</v>
       </c>
       <c r="R18">
-        <v>-0.02</v>
+        <v>-0.06323387216298698</v>
       </c>
       <c r="S18">
-        <v>-0.02</v>
+        <v>-0.06884898494427927</v>
       </c>
       <c r="T18">
-        <v>-0.02</v>
+        <v>-0.0734888257372564</v>
       </c>
       <c r="U18">
-        <v>-0.02</v>
+        <v>-0.07742412584502591</v>
       </c>
       <c r="V18">
-        <v>-0.02</v>
+        <v>-0.08084844453446981</v>
       </c>
       <c r="W18">
-        <v>-0.02</v>
+        <v>-0.08387935793753658</v>
       </c>
       <c r="X18">
-        <v>-0.02</v>
+        <v>-0.08660509306633835</v>
       </c>
       <c r="Y18">
-        <v>-0.02</v>
+        <v>-0.0890692378143129</v>
       </c>
       <c r="Z18">
-        <v>-0.02</v>
+        <v>-0.09132299697922586</v>
       </c>
       <c r="AA18">
-        <v>-0.02</v>
+        <v>-0.09339948656781831</v>
       </c>
       <c r="AB18">
-        <v>-0.02</v>
+        <v>-0.09532965697310994</v>
       </c>
       <c r="AC18">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AD18">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AE18">
-        <v>-0.02</v>
+        <v>-0.03042383379161122</v>
       </c>
       <c r="AF18">
-        <v>-0.02</v>
+        <v>-0.04627777604339166</v>
       </c>
       <c r="AG18">
-        <v>-0.02</v>
+        <v>-0.05609364138287103</v>
       </c>
       <c r="AH18">
-        <v>-0.02</v>
+        <v>-0.06323387216298698</v>
       </c>
       <c r="AI18">
-        <v>-0.02</v>
+        <v>-0.06884898494427927</v>
       </c>
       <c r="AJ18">
-        <v>-0.02</v>
+        <v>-0.0734888257372564</v>
       </c>
       <c r="AK18">
-        <v>-0.02</v>
+        <v>-0.07742412584502591</v>
       </c>
       <c r="AL18">
-        <v>-0.02</v>
+        <v>-0.08084844453446981</v>
       </c>
       <c r="AM18">
-        <v>-0.02</v>
+        <v>-0.08387935793753658</v>
       </c>
       <c r="AN18">
-        <v>-0.02</v>
+        <v>-0.08660509306633835</v>
       </c>
       <c r="AO18">
-        <v>-0.02</v>
+        <v>-0.0890692378143129</v>
       </c>
       <c r="AP18">
-        <v>-0.02</v>
+        <v>-0.09132299697922586</v>
       </c>
       <c r="AQ18">
-        <v>-0.02</v>
+        <v>-0.09339948656781831</v>
       </c>
       <c r="AR18">
-        <v>-0.02</v>
+        <v>-0.09532965697310994</v>
       </c>
       <c r="AS18">
-        <v>-0.02</v>
+        <v>-0.09672139931377495</v>
       </c>
       <c r="AT18">
-        <v>0.6326530612244898</v>
+        <v>0.1039114241186816</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:48">
@@ -7063,7 +7063,7 @@
         <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E19">
         <v>1218441</v>
@@ -7075,10 +7075,10 @@
         <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>13.38630136986301</v>
       </c>
       <c r="M19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N19">
         <v>-0.04628716665981197</v>
@@ -7141,52 +7141,52 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AE19">
-        <v>-0.03503863675043723</v>
+        <v>-0.04798509368362156</v>
       </c>
       <c r="AF19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AG19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AH19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AI19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AJ19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AK19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AL19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AM19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AN19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AO19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AP19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AQ19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AR19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AS19">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AT19">
         <v>0.09706730378724263</v>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="AV19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:48">
@@ -7209,7 +7209,7 @@
         <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E20">
         <v>60055924</v>
@@ -7221,10 +7221,10 @@
         <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7287,52 +7287,52 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AE20">
-        <v>-0.03756930381072473</v>
+        <v>-0.04170725587089447</v>
       </c>
       <c r="AF20">
-        <v>-0.03927017866165177</v>
+        <v>-0.04374958793004801</v>
       </c>
       <c r="AG20">
-        <v>-0.04083501116334636</v>
+        <v>-0.04562856661191542</v>
       </c>
       <c r="AH20">
-        <v>-0.04228396114531983</v>
+        <v>-0.04736839890979524</v>
       </c>
       <c r="AI20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AJ20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AK20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AL20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AM20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AN20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AO20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AP20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AQ20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AR20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AS20">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AT20">
         <v>0.7395372742482074</v>
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="AV20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:48">
@@ -7355,7 +7355,7 @@
         <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21">
         <v>60144910</v>
@@ -7367,10 +7367,10 @@
         <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -7382,7 +7382,7 @@
         <v>7.317808219178082</v>
       </c>
       <c r="M21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N21">
         <v>-0.006647356104413221</v>
@@ -7433,52 +7433,52 @@
         <v>-0.01509139912581338</v>
       </c>
       <c r="AD21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AE21">
-        <v>-0.02</v>
+        <v>-0.008158156386945684</v>
       </c>
       <c r="AF21">
-        <v>-0.02</v>
+        <v>-0.009493379801801163</v>
       </c>
       <c r="AG21">
-        <v>-0.02</v>
+        <v>-0.01069239212509018</v>
       </c>
       <c r="AH21">
-        <v>-0.02</v>
+        <v>-0.01178042952012766</v>
       </c>
       <c r="AI21">
-        <v>-0.02</v>
+        <v>-0.01277892143247003</v>
       </c>
       <c r="AJ21">
-        <v>-0.02</v>
+        <v>-0.01369684080868297</v>
       </c>
       <c r="AK21">
-        <v>-0.02</v>
+        <v>-0.01454829609654285</v>
       </c>
       <c r="AL21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AM21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AN21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AO21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AP21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AQ21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AR21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AS21">
-        <v>-0.02</v>
+        <v>-0.01509139912581338</v>
       </c>
       <c r="AT21">
         <v>0.2475980482608367</v>
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="AV21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:48">
@@ -7501,7 +7501,7 @@
         <v>258</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E22">
         <v>496678</v>
@@ -7513,10 +7513,10 @@
         <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -7528,7 +7528,7 @@
         <v>14.62191780821918</v>
       </c>
       <c r="M22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N22">
         <v>-0.04836247008897316</v>
@@ -7579,52 +7579,52 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AE22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AF22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AG22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AH22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AI22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AJ22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AK22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AL22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AM22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AN22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AO22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AP22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AQ22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AR22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AS22">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AT22">
         <v>0.4573823720901941</v>
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="AV22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:48">
@@ -7647,7 +7647,7 @@
         <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E23">
         <v>596771</v>
@@ -7659,10 +7659,10 @@
         <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>13.88493150684931</v>
       </c>
       <c r="M23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N23">
         <v>-0.04714682046984989</v>
@@ -7725,52 +7725,52 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AE23">
-        <v>-0.03593849478630882</v>
+        <v>-0.0487858486740003</v>
       </c>
       <c r="AF23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AG23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AH23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AI23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AJ23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AK23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AL23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AM23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AN23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AO23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AP23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AQ23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AR23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AS23">
-        <v>-0.0361370479186777</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AT23">
         <v>0.5442759034755772</v>
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="AV23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -7793,7 +7793,7 @@
         <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E24">
         <v>60168413</v>
@@ -7805,10 +7805,10 @@
         <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -7871,52 +7871,52 @@
         <v>-0.04896253477920987</v>
       </c>
       <c r="AD24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AE24">
-        <v>-0.02977996272458456</v>
+        <v>-0.03235417441917252</v>
       </c>
       <c r="AF24">
-        <v>-0.03226121692424899</v>
+        <v>-0.03533355000116906</v>
       </c>
       <c r="AG24">
-        <v>-0.03446305292590255</v>
+        <v>-0.03797741310063497</v>
       </c>
       <c r="AH24">
-        <v>-0.03644208084739651</v>
+        <v>-0.04035373853564519</v>
       </c>
       <c r="AI24">
-        <v>-0.03824398249710099</v>
+        <v>-0.04251737891437576</v>
       </c>
       <c r="AJ24">
-        <v>-0.03988958961583459</v>
+        <v>-0.04449334803022762</v>
       </c>
       <c r="AK24">
-        <v>-0.04140752415017635</v>
+        <v>-0.0463160137963143</v>
       </c>
       <c r="AL24">
-        <v>-0.04281617837210835</v>
+        <v>-0.04800746080439115</v>
       </c>
       <c r="AM24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AN24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AO24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AP24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AQ24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AR24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AS24">
-        <v>-0.04361157366410478</v>
+        <v>-0.04896253477920987</v>
       </c>
       <c r="AT24">
         <v>0.3277283878667971</v>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7990,31 +7990,31 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>8.263819500402901</v>
+        <v>7.598066075745367</v>
       </c>
       <c r="E2">
         <v>374</v>
       </c>
       <c r="F2">
-        <v>6.576248574594051</v>
+        <v>18.61096798750696</v>
       </c>
       <c r="G2">
-        <v>-3.690231932046194</v>
+        <v>8.084861234691942</v>
       </c>
       <c r="H2">
-        <v>10.01001410958476</v>
+        <v>23.56168519065077</v>
       </c>
       <c r="I2">
-        <v>-0.01727971359017978</v>
+        <v>-0.04740307710430334</v>
       </c>
       <c r="J2">
-        <v>0.009965256793790588</v>
+        <v>-0.02115985754726329</v>
       </c>
       <c r="K2">
-        <v>-0.02606706528941771</v>
+        <v>-0.05926548273723047</v>
       </c>
       <c r="L2">
-        <v>0.0360323220832083</v>
+        <v>0.03810562518996718</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8025,31 +8025,31 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>8.263819500402901</v>
+        <v>7.598066075745367</v>
       </c>
       <c r="E3">
         <v>374</v>
       </c>
       <c r="F3">
-        <v>6.576248574594051</v>
+        <v>18.61096798750696</v>
       </c>
       <c r="G3">
-        <v>-3.690231932046194</v>
+        <v>8.084861234691942</v>
       </c>
       <c r="H3">
-        <v>10.01001410958476</v>
+        <v>23.56168519065077</v>
       </c>
       <c r="I3">
-        <v>-0.01727971359017978</v>
+        <v>-0.04740307710430334</v>
       </c>
       <c r="J3">
-        <v>0.009965256793790588</v>
+        <v>-0.02115985754726329</v>
       </c>
       <c r="K3">
-        <v>-0.02606706528941771</v>
+        <v>-0.05926548273723047</v>
       </c>
       <c r="L3">
-        <v>0.00360323220832083</v>
+        <v>0.003810562518996718</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8462,10 +8462,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>273</v>
@@ -8486,16 +8486,16 @@
         <v>10.5</v>
       </c>
       <c r="L3">
-        <v>0.030984668908323</v>
+        <v>-0.02698744679287091</v>
       </c>
       <c r="M3">
-        <v>-0.04057867427553811</v>
+        <v>-0.09855078997673201</v>
       </c>
       <c r="N3">
-        <v>-1.833261793707401</v>
+        <v>1.69189415793147</v>
       </c>
       <c r="O3">
-        <v>2.579991776750135</v>
+        <v>6.66881519417548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8509,13 +8509,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
         <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8533,16 +8533,16 @@
         <v>10.5</v>
       </c>
       <c r="L4">
-        <v>0.05370458222796941</v>
+        <v>-0.006879769167127833</v>
       </c>
       <c r="M4">
-        <v>-0.02671558400461935</v>
+        <v>-0.0872999353997166</v>
       </c>
       <c r="N4">
-        <v>-3.363848356387926</v>
+        <v>0.4572102661221988</v>
       </c>
       <c r="O4">
-        <v>1.811627223581525</v>
+        <v>6.312912598406215</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8556,10 +8556,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
         <v>273</v>
@@ -8580,16 +8580,16 @@
         <v>10.5</v>
       </c>
       <c r="L5">
-        <v>0.030984668908323</v>
+        <v>-0.02698744679287091</v>
       </c>
       <c r="M5">
-        <v>-0.04057867427553811</v>
+        <v>-0.09855078997673201</v>
       </c>
       <c r="N5">
-        <v>-1.262245825175587</v>
+        <v>1.164910731690521</v>
       </c>
       <c r="O5">
-        <v>1.776387780713208</v>
+        <v>4.591643248448691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -8603,10 +8603,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>272</v>
@@ -8627,16 +8627,16 @@
         <v>10.5</v>
       </c>
       <c r="L6">
-        <v>0.02492292829285174</v>
+        <v>-0.03676486749018744</v>
       </c>
       <c r="M6">
-        <v>-0.01089519808621839</v>
+        <v>-0.07258299386925757</v>
       </c>
       <c r="N6">
-        <v>-0.3161194455340514</v>
+        <v>0.4961854704438616</v>
       </c>
       <c r="O6">
-        <v>0.1431977428951814</v>
+        <v>1.017426803760085</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -8650,13 +8650,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
         <v>271</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8674,16 +8674,16 @@
         <v>10.5</v>
       </c>
       <c r="L7">
-        <v>0.02400310468506598</v>
+        <v>-0.0376846910979732</v>
       </c>
       <c r="M7">
-        <v>-0.008774812662701914</v>
+        <v>-0.07046260844574109</v>
       </c>
       <c r="N7">
-        <v>-0.4453687561391871</v>
+        <v>0.7440483636059328</v>
       </c>
       <c r="O7">
-        <v>0.1681973407467538</v>
+        <v>1.44027510096234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8697,10 +8697,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
         <v>273</v>
@@ -8744,10 +8744,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
         <v>273</v>
@@ -8791,10 +8791,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>272</v>
@@ -8838,10 +8838,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>273</v>
@@ -8885,10 +8885,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>273</v>
@@ -8932,10 +8932,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
         <v>273</v>

--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="296">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -611,72 +611,72 @@
     <t>SECTOR AP</t>
   </si>
   <si>
+    <t>Clase corregida</t>
+  </si>
+  <si>
+    <t>Diametro_max</t>
+  </si>
+  <si>
+    <t>Antiguedad ajustada</t>
+  </si>
+  <si>
+    <t>Curva proy</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Error_1</t>
+  </si>
+  <si>
+    <t>Error_2</t>
+  </si>
+  <si>
+    <t>Error_3</t>
+  </si>
+  <si>
+    <t>Error_4</t>
+  </si>
+  <si>
+    <t>Error_5</t>
+  </si>
+  <si>
+    <t>Error_6</t>
+  </si>
+  <si>
+    <t>Error_7</t>
+  </si>
+  <si>
+    <t>Error_8</t>
+  </si>
+  <si>
+    <t>Error_9</t>
+  </si>
+  <si>
+    <t>Error_10</t>
+  </si>
+  <si>
+    <t>Error_11</t>
+  </si>
+  <si>
+    <t>Error_12</t>
+  </si>
+  <si>
+    <t>Error_13</t>
+  </si>
+  <si>
+    <t>Error_14</t>
+  </si>
+  <si>
+    <t>Error_15</t>
+  </si>
+  <si>
     <t>Clase</t>
   </si>
   <si>
-    <t>Clase corregida</t>
-  </si>
-  <si>
-    <t>Diametro_max</t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
-    <t>Antiguedad ajustada</t>
-  </si>
-  <si>
-    <t>Curva proy</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Error_1</t>
-  </si>
-  <si>
-    <t>Error_2</t>
-  </si>
-  <si>
-    <t>Error_3</t>
-  </si>
-  <si>
-    <t>Error_4</t>
-  </si>
-  <si>
-    <t>Error_5</t>
-  </si>
-  <si>
-    <t>Error_6</t>
-  </si>
-  <si>
-    <t>Error_7</t>
-  </si>
-  <si>
-    <t>Error_8</t>
-  </si>
-  <si>
-    <t>Error_9</t>
-  </si>
-  <si>
-    <t>Error_10</t>
-  </si>
-  <si>
-    <t>Error_11</t>
-  </si>
-  <si>
-    <t>Error_12</t>
-  </si>
-  <si>
-    <t>Error_13</t>
-  </si>
-  <si>
-    <t>Error_14</t>
-  </si>
-  <si>
-    <t>Error_15</t>
-  </si>
-  <si>
     <t>Error_0.5</t>
   </si>
   <si>
@@ -767,6 +767,9 @@
     <t>02/12/2005</t>
   </si>
   <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
     <t>12/02/2010</t>
   </si>
   <si>
@@ -818,6 +821,15 @@
     <t>ULTRA</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C-13</t>
+  </si>
+  <si>
+    <t>C-19</t>
+  </si>
+  <si>
     <t>B-25</t>
   </si>
   <si>
@@ -827,22 +839,13 @@
     <t>B-19</t>
   </si>
   <si>
-    <t>C-13</t>
-  </si>
-  <si>
     <t>C-25</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>AB-25</t>
   </si>
   <si>
     <t>AB-13/19</t>
-  </si>
-  <si>
-    <t>C-19</t>
   </si>
   <si>
     <t>38</t>
@@ -4418,7 +4421,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4581,7 +4584,7 @@
         <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E2">
         <v>345317</v>
@@ -4593,22 +4596,22 @@
         <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>265</v>
+        <v>-0.02</v>
+      </c>
+      <c r="M2">
+        <v>-0.02</v>
       </c>
       <c r="N2">
         <v>-0.02</v>
@@ -4652,11 +4655,11 @@
       <c r="AA2">
         <v>-0.02</v>
       </c>
-      <c r="AB2">
-        <v>-0.02</v>
-      </c>
-      <c r="AC2">
-        <v>-0.02</v>
+      <c r="AB2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>266</v>
       </c>
       <c r="AD2">
         <v>-0.02</v>
@@ -4713,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -4727,7 +4730,7 @@
         <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3">
         <v>941780</v>
@@ -4739,22 +4742,22 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.526027397260274</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L3">
-        <v>1.526027397260274</v>
-      </c>
-      <c r="M3" t="s">
-        <v>265</v>
+        <v>-0.02</v>
+      </c>
+      <c r="M3">
+        <v>-0.02</v>
       </c>
       <c r="N3">
         <v>-0.02</v>
@@ -4798,11 +4801,11 @@
       <c r="AA3">
         <v>-0.02</v>
       </c>
-      <c r="AB3">
-        <v>-0.02</v>
-      </c>
-      <c r="AC3">
-        <v>-0.02</v>
+      <c r="AB3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>266</v>
       </c>
       <c r="AD3">
         <v>-0.02</v>
@@ -4859,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="AV3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -4873,7 +4876,7 @@
         <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4">
         <v>941731</v>
@@ -4885,22 +4888,22 @@
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.73972602739726</v>
       </c>
       <c r="K4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L4">
-        <v>1.73972602739726</v>
-      </c>
-      <c r="M4" t="s">
-        <v>265</v>
+        <v>-0.02</v>
+      </c>
+      <c r="M4">
+        <v>-0.02</v>
       </c>
       <c r="N4">
         <v>-0.02</v>
@@ -4944,11 +4947,11 @@
       <c r="AA4">
         <v>-0.02</v>
       </c>
-      <c r="AB4">
-        <v>-0.02</v>
-      </c>
-      <c r="AC4">
-        <v>-0.02</v>
+      <c r="AB4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>266</v>
       </c>
       <c r="AD4">
         <v>-0.02</v>
@@ -5005,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -5019,7 +5022,7 @@
         <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E5">
         <v>60274432</v>
@@ -5031,127 +5034,127 @@
         <v>121</v>
       </c>
       <c r="H5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.605479452054795</v>
+      </c>
+      <c r="K5" t="s">
         <v>266</v>
       </c>
-      <c r="I5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>272</v>
-      </c>
       <c r="L5">
-        <v>1.605479452054795</v>
-      </c>
-      <c r="M5" t="s">
-        <v>265</v>
+        <v>-0.05044820843475818</v>
+      </c>
+      <c r="M5">
+        <v>-0.05614464589447737</v>
       </c>
       <c r="N5">
-        <v>-0.05048929843475818</v>
+        <v>-0.0599752293860011</v>
       </c>
       <c r="O5">
-        <v>-0.05618573589447737</v>
+        <v>-0.06285321302781936</v>
       </c>
       <c r="P5">
-        <v>-0.0600163193860011</v>
+        <v>-0.06516371803827845</v>
       </c>
       <c r="Q5">
-        <v>-0.06289430302781937</v>
+        <v>-0.06709409402281079</v>
       </c>
       <c r="R5">
-        <v>-0.06520480803827845</v>
+        <v>-0.06875616243281968</v>
       </c>
       <c r="S5">
-        <v>-0.0671351840228108</v>
+        <v>-0.07020848308784694</v>
       </c>
       <c r="T5">
-        <v>-0.06879725243281969</v>
+        <v>-0.07150105929082023</v>
       </c>
       <c r="U5">
-        <v>-0.07024957308784695</v>
+        <v>-0.07266557601008347</v>
       </c>
       <c r="V5">
-        <v>-0.07154214929082024</v>
+        <v>-0.07372791171283628</v>
       </c>
       <c r="W5">
-        <v>-0.07270666601008348</v>
+        <v>-0.07469965989038199</v>
       </c>
       <c r="X5">
-        <v>-0.07376900171283629</v>
+        <v>-0.07559723142515329</v>
       </c>
       <c r="Y5">
-        <v>-0.074740749890382</v>
+        <v>-0.07643115188758157</v>
       </c>
       <c r="Z5">
-        <v>-0.0756383214251533</v>
+        <v>-0.07673810490885255</v>
       </c>
       <c r="AA5">
-        <v>-0.07647224188758157</v>
-      </c>
-      <c r="AB5">
-        <v>-0.07677919490885256</v>
-      </c>
-      <c r="AC5">
-        <v>-0.07677919490885256</v>
+        <v>-0.07673810490885255</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>274</v>
       </c>
       <c r="AD5">
-        <v>-0.07677919490885256</v>
+        <v>-0.02</v>
       </c>
       <c r="AE5">
-        <v>-0.05618573589447737</v>
+        <v>-0.02</v>
       </c>
       <c r="AF5">
-        <v>-0.0600163193860011</v>
+        <v>-0.02</v>
       </c>
       <c r="AG5">
-        <v>-0.06289430302781937</v>
+        <v>-0.02</v>
       </c>
       <c r="AH5">
-        <v>-0.06520480803827845</v>
+        <v>-0.02</v>
       </c>
       <c r="AI5">
-        <v>-0.0671351840228108</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ5">
-        <v>-0.06879725243281969</v>
+        <v>-0.02</v>
       </c>
       <c r="AK5">
-        <v>-0.07024957308784695</v>
+        <v>-0.02</v>
       </c>
       <c r="AL5">
-        <v>-0.07154214929082024</v>
+        <v>-0.02</v>
       </c>
       <c r="AM5">
-        <v>-0.07270666601008348</v>
+        <v>-0.02</v>
       </c>
       <c r="AN5">
-        <v>-0.07376900171283629</v>
+        <v>-0.02</v>
       </c>
       <c r="AO5">
-        <v>-0.074740749890382</v>
+        <v>-0.02</v>
       </c>
       <c r="AP5">
-        <v>-0.0756383214251533</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ5">
-        <v>-0.07647224188758157</v>
+        <v>-0.02</v>
       </c>
       <c r="AR5">
-        <v>-0.07677919490885256</v>
+        <v>-0.02</v>
       </c>
       <c r="AS5">
-        <v>-0.07677919490885256</v>
+        <v>-0.02</v>
       </c>
       <c r="AT5">
-        <v>0.6912622243960639</v>
+        <v>0.6906697617523222</v>
       </c>
       <c r="AU5">
         <v>1</v>
       </c>
       <c r="AV5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:48">
@@ -5165,7 +5168,7 @@
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6">
         <v>1252181</v>
@@ -5177,127 +5180,127 @@
         <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>12.74794520547945</v>
       </c>
       <c r="K6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L6">
-        <v>12.74794520547945</v>
-      </c>
-      <c r="M6" t="s">
-        <v>269</v>
+        <v>-0.1030721411695989</v>
+      </c>
+      <c r="M6">
+        <v>-0.1048472674530204</v>
       </c>
       <c r="N6">
-        <v>-0.1031107561695989</v>
+        <v>-0.1065020654703833</v>
       </c>
       <c r="O6">
-        <v>-0.1048858824530204</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P6">
-        <v>-0.1065406804703833</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA6">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB6">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC6">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>275</v>
       </c>
       <c r="AD6">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE6">
-        <v>-0.1048858824530204</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF6">
-        <v>-0.1065406804703833</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG6">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH6">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI6">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ6">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK6">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL6">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM6">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN6">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO6">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP6">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ6">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR6">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS6">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT6">
-        <v>1.264613580403317</v>
+        <v>1.264085557944494</v>
       </c>
       <c r="AU6">
         <v>1</v>
       </c>
       <c r="AV6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:48">
@@ -5311,7 +5314,7 @@
         <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E7">
         <v>60209133</v>
@@ -5323,127 +5326,127 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>4.128767123287671</v>
       </c>
       <c r="K7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L7">
-        <v>4.128767123287671</v>
-      </c>
-      <c r="M7" t="s">
-        <v>274</v>
+        <v>-0.07657212719142525</v>
+      </c>
+      <c r="M7">
+        <v>-0.08167017470879147</v>
       </c>
       <c r="N7">
-        <v>-0.07661074219142525</v>
+        <v>-0.08586769365020347</v>
       </c>
       <c r="O7">
-        <v>-0.08170878970879146</v>
+        <v>-0.08941896791073504</v>
       </c>
       <c r="P7">
-        <v>-0.08590630865020346</v>
+        <v>-0.09250346041109639</v>
       </c>
       <c r="Q7">
-        <v>-0.08945758291073504</v>
+        <v>-0.09522974569494964</v>
       </c>
       <c r="R7">
-        <v>-0.09254207541109638</v>
+        <v>-0.09767878799229357</v>
       </c>
       <c r="S7">
-        <v>-0.09526836069494964</v>
+        <v>-0.0998907876331331</v>
       </c>
       <c r="T7">
-        <v>-0.09771740299229356</v>
+        <v>-0.1019124134301417</v>
       </c>
       <c r="U7">
-        <v>-0.09992940263313309</v>
+        <v>-0.1037738531427034</v>
       </c>
       <c r="V7">
-        <v>-0.1019510284301417</v>
+        <v>-0.1055031944650553</v>
       </c>
       <c r="W7">
-        <v>-0.1038124681427034</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X7">
-        <v>-0.1055418094650553</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y7">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z7">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA7">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB7">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC7">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>275</v>
       </c>
       <c r="AD7">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AE7">
-        <v>-0.08170878970879146</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AF7">
-        <v>-0.08590630865020346</v>
+        <v>-0.06652367544990635</v>
       </c>
       <c r="AG7">
-        <v>-0.08945758291073504</v>
+        <v>-0.0730950696806021</v>
       </c>
       <c r="AH7">
-        <v>-0.09254207541109638</v>
+        <v>-0.07800622894623743</v>
       </c>
       <c r="AI7">
-        <v>-0.09526836069494964</v>
+        <v>-0.08192908970681709</v>
       </c>
       <c r="AJ7">
-        <v>-0.09771740299229356</v>
+        <v>-0.0852037859330063</v>
       </c>
       <c r="AK7">
-        <v>-0.09992940263313309</v>
+        <v>-0.0880012408478464</v>
       </c>
       <c r="AL7">
-        <v>-0.1019510284301417</v>
+        <v>-0.09044845684347259</v>
       </c>
       <c r="AM7">
-        <v>-0.1038124681427034</v>
+        <v>-0.09262345511372895</v>
       </c>
       <c r="AN7">
-        <v>-0.1055418094650553</v>
+        <v>-0.09458588200433522</v>
       </c>
       <c r="AO7">
-        <v>-0.1069346504804038</v>
+        <v>-0.09636472237414694</v>
       </c>
       <c r="AP7">
-        <v>-0.1069346504804038</v>
+        <v>-0.09799529909500482</v>
       </c>
       <c r="AQ7">
-        <v>-0.1069346504804038</v>
+        <v>-0.0995004370237766</v>
       </c>
       <c r="AR7">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AS7">
-        <v>-0.1069346504804038</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AT7">
-        <v>1.07856967152957</v>
+        <v>1.077980947727881</v>
       </c>
       <c r="AU7">
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -5457,7 +5460,7 @@
         <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8">
         <v>413560</v>
@@ -5469,127 +5472,127 @@
         <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>269</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="M8">
+        <v>-0.1068960354804038</v>
       </c>
       <c r="N8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="O8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA8">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB8">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC8">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>275</v>
       </c>
       <c r="AD8">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE8">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF8">
-        <v>-0.1069346504804038</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG8">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH8">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI8">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ8">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK8">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL8">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM8">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN8">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO8">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP8">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ8">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR8">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS8">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT8">
-        <v>1.796083296781027</v>
+        <v>1.795357087087339</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -5603,7 +5606,7 @@
         <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9">
         <v>60177677</v>
@@ -5615,127 +5618,127 @@
         <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>5.515068493150685</v>
       </c>
       <c r="K9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L9">
-        <v>5.515068493150685</v>
-      </c>
-      <c r="M9" t="s">
-        <v>274</v>
+        <v>-0.08337712283132148</v>
+      </c>
+      <c r="M9">
+        <v>-0.08729394769963492</v>
       </c>
       <c r="N9">
-        <v>-0.08341573783132147</v>
+        <v>-0.09065893758004415</v>
       </c>
       <c r="O9">
-        <v>-0.08733256269963491</v>
+        <v>-0.09359442151106914</v>
       </c>
       <c r="P9">
-        <v>-0.09069755258004414</v>
+        <v>-0.09620367385973562</v>
       </c>
       <c r="Q9">
-        <v>-0.09363303651106913</v>
+        <v>-0.09855200720561615</v>
       </c>
       <c r="R9">
-        <v>-0.09624228885973561</v>
+        <v>-0.1006924835196402</v>
       </c>
       <c r="S9">
-        <v>-0.09859062220561614</v>
+        <v>-0.1026490645304324</v>
       </c>
       <c r="T9">
-        <v>-0.1007310985196402</v>
+        <v>-0.104455222747214</v>
       </c>
       <c r="U9">
-        <v>-0.1026876795304324</v>
+        <v>-0.1061324451891372</v>
       </c>
       <c r="V9">
-        <v>-0.104493837747214</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W9">
-        <v>-0.1061710601891372</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X9">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y9">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z9">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA9">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB9">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC9">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>275</v>
       </c>
       <c r="AD9">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AE9">
-        <v>-0.08733256269963491</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AF9">
-        <v>-0.09069755258004414</v>
+        <v>-0.06652367544990635</v>
       </c>
       <c r="AG9">
-        <v>-0.09363303651106913</v>
+        <v>-0.0730950696806021</v>
       </c>
       <c r="AH9">
-        <v>-0.09624228885973561</v>
+        <v>-0.07800622894623743</v>
       </c>
       <c r="AI9">
-        <v>-0.09859062220561614</v>
+        <v>-0.08192908970681709</v>
       </c>
       <c r="AJ9">
-        <v>-0.1007310985196402</v>
+        <v>-0.0852037859330063</v>
       </c>
       <c r="AK9">
-        <v>-0.1026876795304324</v>
+        <v>-0.0880012408478464</v>
       </c>
       <c r="AL9">
-        <v>-0.104493837747214</v>
+        <v>-0.09044845684347259</v>
       </c>
       <c r="AM9">
-        <v>-0.1061710601891372</v>
+        <v>-0.09262345511372895</v>
       </c>
       <c r="AN9">
-        <v>-0.1069346504804038</v>
+        <v>-0.09458588200433522</v>
       </c>
       <c r="AO9">
-        <v>-0.1069346504804038</v>
+        <v>-0.09636472237414694</v>
       </c>
       <c r="AP9">
-        <v>-0.1069346504804038</v>
+        <v>-0.09799529909500482</v>
       </c>
       <c r="AQ9">
-        <v>-0.1069346504804038</v>
+        <v>-0.0995004370237766</v>
       </c>
       <c r="AR9">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AS9">
-        <v>-0.1069346504804038</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AT9">
-        <v>0.8190645109982641</v>
+        <v>0.8186508586822064</v>
       </c>
       <c r="AU9">
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -5749,7 +5752,7 @@
         <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E10">
         <v>3892942</v>
@@ -5761,127 +5764,127 @@
         <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I10" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>274</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="M10">
+        <v>-0.1068960354804038</v>
       </c>
       <c r="N10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="O10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA10">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB10">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC10">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>275</v>
       </c>
       <c r="AD10">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AE10">
-        <v>-0.1069346504804038</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AF10">
-        <v>-0.1069346504804038</v>
+        <v>-0.06652367544990635</v>
       </c>
       <c r="AG10">
-        <v>-0.1069346504804038</v>
+        <v>-0.0730950696806021</v>
       </c>
       <c r="AH10">
-        <v>-0.1069346504804038</v>
+        <v>-0.07800622894623743</v>
       </c>
       <c r="AI10">
-        <v>-0.1069346504804038</v>
+        <v>-0.08192908970681709</v>
       </c>
       <c r="AJ10">
-        <v>-0.1069346504804038</v>
+        <v>-0.0852037859330063</v>
       </c>
       <c r="AK10">
-        <v>-0.1069346504804038</v>
+        <v>-0.0880012408478464</v>
       </c>
       <c r="AL10">
-        <v>-0.1069346504804038</v>
+        <v>-0.09044845684347259</v>
       </c>
       <c r="AM10">
-        <v>-0.1069346504804038</v>
+        <v>-0.09262345511372895</v>
       </c>
       <c r="AN10">
-        <v>-0.1069346504804038</v>
+        <v>-0.09458588200433522</v>
       </c>
       <c r="AO10">
-        <v>-0.1069346504804038</v>
+        <v>-0.09636472237414694</v>
       </c>
       <c r="AP10">
-        <v>-0.1069346504804038</v>
+        <v>-0.09799529909500482</v>
       </c>
       <c r="AQ10">
-        <v>-0.1069346504804038</v>
+        <v>-0.0995004370237766</v>
       </c>
       <c r="AR10">
-        <v>-0.1069346504804038</v>
+        <v>-0.03512447096155945</v>
       </c>
       <c r="AS10">
-        <v>-0.1069346504804038</v>
+        <v>-0.05652390291923884</v>
       </c>
       <c r="AT10">
-        <v>2.394777729041369</v>
+        <v>2.393809449449786</v>
       </c>
       <c r="AU10">
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -5895,7 +5898,7 @@
         <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E11">
         <v>457415</v>
@@ -5907,127 +5910,127 @@
         <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>269</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="M11">
+        <v>-0.1068960354804038</v>
       </c>
       <c r="N11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="O11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA11">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB11">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC11">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>275</v>
       </c>
       <c r="AD11">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE11">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF11">
-        <v>-0.1069346504804038</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG11">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH11">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI11">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ11">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK11">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL11">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM11">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN11">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO11">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP11">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ11">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR11">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS11">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT11">
-        <v>0.4789555458082739</v>
+        <v>0.4787618898899572</v>
       </c>
       <c r="AU11">
         <v>1</v>
       </c>
       <c r="AV11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -6041,7 +6044,7 @@
         <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E12">
         <v>1310176</v>
@@ -6053,127 +6056,127 @@
         <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>269</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="M12">
+        <v>-0.1068960354804038</v>
       </c>
       <c r="N12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="O12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA12">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB12">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC12">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>275</v>
       </c>
       <c r="AD12">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE12">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF12">
-        <v>-0.1069346504804038</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG12">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH12">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI12">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ12">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK12">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL12">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM12">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN12">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO12">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP12">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ12">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR12">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS12">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT12">
-        <v>1.197388864520685</v>
+        <v>1.196904724724893</v>
       </c>
       <c r="AU12">
         <v>1</v>
       </c>
       <c r="AV12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:48">
@@ -6187,139 +6190,139 @@
         <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E13">
-        <v>406049</v>
+        <v>13101760</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L13">
-        <v>12.47123287671233</v>
-      </c>
-      <c r="M13" t="s">
-        <v>269</v>
+        <v>-0.02694883179287091</v>
+      </c>
+      <c r="M13">
+        <v>-0.02694883179287091</v>
       </c>
       <c r="N13">
-        <v>-0.1025949144685768</v>
+        <v>-0.05275090267099068</v>
       </c>
       <c r="O13">
-        <v>-0.1044079462797438</v>
+        <v>-0.06476676103394817</v>
       </c>
       <c r="P13">
-        <v>-0.1060955436746831</v>
+        <v>-0.07267942633792766</v>
       </c>
       <c r="Q13">
-        <v>-0.1069346504804038</v>
+        <v>-0.07858876925289292</v>
       </c>
       <c r="R13">
-        <v>-0.1069346504804038</v>
+        <v>-0.08331866568743167</v>
       </c>
       <c r="S13">
-        <v>-0.1069346504804038</v>
+        <v>-0.0872444726120299</v>
       </c>
       <c r="T13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09060748420938598</v>
       </c>
       <c r="U13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09354901466093521</v>
       </c>
       <c r="V13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09616981874018128</v>
       </c>
       <c r="W13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09852137302241508</v>
       </c>
       <c r="X13">
-        <v>-0.1069346504804038</v>
+        <v>-0.1006589200601873</v>
       </c>
       <c r="Y13">
-        <v>-0.1069346504804038</v>
+        <v>-0.1026181835028554</v>
       </c>
       <c r="Z13">
-        <v>-0.1069346504804038</v>
+        <v>-0.1044313954715365</v>
       </c>
       <c r="AA13">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB13">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC13">
-        <v>-0.1069346504804038</v>
+        <v>-0.1061102596231267</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>275</v>
       </c>
       <c r="AD13">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE13">
-        <v>-0.1044079462797438</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF13">
-        <v>-0.1060955436746831</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG13">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH13">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI13">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ13">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK13">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL13">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM13">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN13">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO13">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ13">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR13">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS13">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT13">
-        <v>0.3429719179978429</v>
+        <v>0.2769518466590488</v>
       </c>
       <c r="AU13">
         <v>1</v>
       </c>
       <c r="AV13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -6333,139 +6336,139 @@
         <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E14">
-        <v>4520541</v>
+        <v>406049</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>12.47123287671233</v>
       </c>
       <c r="K14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L14">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>269</v>
+        <v>-0.1025562994685768</v>
+      </c>
+      <c r="M14">
+        <v>-0.1043693312797438</v>
       </c>
       <c r="N14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1060569286746832</v>
       </c>
       <c r="O14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="P14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Q14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="R14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="S14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="T14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="U14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="V14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="W14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="X14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Y14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="Z14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
       </c>
       <c r="AA14">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AB14">
-        <v>-0.1069346504804038</v>
-      </c>
-      <c r="AC14">
-        <v>-0.1069346504804038</v>
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>275</v>
       </c>
       <c r="AD14">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE14">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF14">
-        <v>-0.1069346504804038</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG14">
-        <v>-0.1069346504804038</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH14">
-        <v>-0.1069346504804038</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI14">
-        <v>-0.1069346504804038</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ14">
-        <v>-0.1069346504804038</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK14">
-        <v>-0.1069346504804038</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL14">
-        <v>-0.1069346504804038</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM14">
-        <v>-0.1069346504804038</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN14">
-        <v>-0.1069346504804038</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO14">
-        <v>-0.1069346504804038</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP14">
-        <v>-0.1069346504804038</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ14">
-        <v>-0.1069346504804038</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR14">
-        <v>-0.1069346504804038</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS14">
-        <v>-0.1069346504804038</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT14">
-        <v>2.155299956137232</v>
+        <v>0.3428280773752645</v>
       </c>
       <c r="AU14">
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:48">
@@ -6482,136 +6485,136 @@
         <v>263</v>
       </c>
       <c r="E15">
-        <v>1395912</v>
+        <v>4520541</v>
       </c>
       <c r="F15">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="M15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="N15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="O15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="P15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="Q15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="R15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="S15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="T15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="U15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="V15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="W15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="X15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="Y15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="Z15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AA15">
+        <v>-0.1068960354804038</v>
+      </c>
+      <c r="AB15" t="s">
         <v>271</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>269</v>
-      </c>
-      <c r="L15">
-        <v>1.334246575342466</v>
-      </c>
-      <c r="M15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N15">
-        <v>-0.03280617195706982</v>
-      </c>
-      <c r="O15">
-        <v>-0.04758050901879888</v>
-      </c>
-      <c r="P15">
-        <v>-0.05702056829185893</v>
-      </c>
-      <c r="Q15">
-        <v>-0.06394416954901511</v>
-      </c>
-      <c r="R15">
-        <v>-0.06942473044991739</v>
-      </c>
-      <c r="S15">
-        <v>-0.07396124965407982</v>
-      </c>
-      <c r="T15">
-        <v>-0.07784152266669329</v>
-      </c>
-      <c r="U15">
-        <v>-0.081215442719685</v>
-      </c>
-      <c r="V15">
-        <v>-0.08420681716884477</v>
-      </c>
-      <c r="W15">
-        <v>-0.08689362742882946</v>
-      </c>
-      <c r="X15">
-        <v>-0.0893385816550675</v>
-      </c>
-      <c r="Y15">
-        <v>-0.09157041575237897</v>
-      </c>
-      <c r="Z15">
-        <v>-0.09362828108290312</v>
-      </c>
-      <c r="AA15">
-        <v>-0.09553734870591413</v>
-      </c>
-      <c r="AB15">
-        <v>-0.09672139931377495</v>
-      </c>
-      <c r="AC15">
-        <v>-0.09672139931377495</v>
+      <c r="AC15" t="s">
+        <v>275</v>
       </c>
       <c r="AD15">
-        <v>-0.09672139931377495</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE15">
-        <v>-0.04758050901879888</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF15">
-        <v>-0.05702056829185893</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG15">
-        <v>-0.06394416954901511</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH15">
-        <v>-0.06942473044991739</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI15">
-        <v>-0.07396124965407982</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ15">
-        <v>-0.07784152266669329</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK15">
-        <v>-0.081215442719685</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL15">
-        <v>-0.08420681716884477</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM15">
-        <v>-0.08689362742882946</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN15">
-        <v>-0.0893385816550675</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO15">
-        <v>-0.09157041575237897</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP15">
-        <v>-0.09362828108290312</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ15">
-        <v>-0.09553734870591413</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR15">
-        <v>-0.09672139931377495</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS15">
-        <v>-0.09672139931377495</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT15">
-        <v>1.255000111888334</v>
+        <v>2.154428504504807</v>
       </c>
       <c r="AU15">
         <v>1</v>
       </c>
       <c r="AV15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:48">
@@ -6625,139 +6628,139 @@
         <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E16">
-        <v>3936370</v>
+        <v>1395912</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>269</v>
-      </c>
-      <c r="I16" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>1.334246575342466</v>
       </c>
       <c r="K16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L16">
-        <v>1.317808219178082</v>
-      </c>
-      <c r="M16" t="s">
-        <v>269</v>
+        <v>-0.03276581695706982</v>
+      </c>
+      <c r="M16">
+        <v>-0.04754015401879888</v>
       </c>
       <c r="N16">
-        <v>-0.03247871272576161</v>
+        <v>-0.05698021329185893</v>
       </c>
       <c r="O16">
-        <v>-0.04739383187172566</v>
+        <v>-0.0639038145490151</v>
       </c>
       <c r="P16">
-        <v>-0.05689012503234533</v>
+        <v>-0.06938437544991738</v>
       </c>
       <c r="Q16">
-        <v>-0.06384386041693474</v>
+        <v>-0.07392089465407983</v>
       </c>
       <c r="R16">
-        <v>-0.06934324542991209</v>
+        <v>-0.07780116766669329</v>
       </c>
       <c r="S16">
-        <v>-0.07389263998856904</v>
+        <v>-0.08117508771968501</v>
       </c>
       <c r="T16">
-        <v>-0.07778229684284312</v>
+        <v>-0.08416646216884477</v>
       </c>
       <c r="U16">
-        <v>-0.08116332555768535</v>
+        <v>-0.08685327242882945</v>
       </c>
       <c r="V16">
-        <v>-0.08416028508451953</v>
+        <v>-0.08929822665506751</v>
       </c>
       <c r="W16">
-        <v>-0.08685159924753491</v>
+        <v>-0.09153006075237896</v>
       </c>
       <c r="X16">
-        <v>-0.08930027170437682</v>
+        <v>-0.09358792608290312</v>
       </c>
       <c r="Y16">
-        <v>-0.09153521178487892</v>
+        <v>-0.09549699370591413</v>
       </c>
       <c r="Z16">
-        <v>-0.09359571723283149</v>
+        <v>-0.09668104431377494</v>
       </c>
       <c r="AA16">
-        <v>-0.09550705660813208</v>
-      </c>
-      <c r="AB16">
-        <v>-0.09672139931377495</v>
-      </c>
-      <c r="AC16">
-        <v>-0.09672139931377495</v>
+        <v>-0.09668104431377494</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>268</v>
       </c>
       <c r="AD16">
-        <v>-0.09672139931377495</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE16">
-        <v>-0.04739383187172566</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF16">
-        <v>-0.05689012503234533</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG16">
-        <v>-0.06384386041693474</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH16">
-        <v>-0.06934324542991209</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI16">
-        <v>-0.07389263998856904</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ16">
-        <v>-0.07778229684284312</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK16">
-        <v>-0.08116332555768535</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL16">
-        <v>-0.08416028508451953</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM16">
-        <v>-0.08685159924753491</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN16">
-        <v>-0.08930027170437682</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO16">
-        <v>-0.09153521178487892</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP16">
-        <v>-0.09359571723283149</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ16">
-        <v>-0.09550705660813208</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR16">
-        <v>-0.09672139931377495</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS16">
-        <v>-0.09672139931377495</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT16">
-        <v>0.4699658644634864</v>
+        <v>1.253404034581948</v>
       </c>
       <c r="AU16">
         <v>1</v>
       </c>
       <c r="AV16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:48">
@@ -6765,145 +6768,145 @@
         <v>121</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E17">
-        <v>60058696</v>
+        <v>13959120</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I17" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L17">
-        <v>1.810958904109589</v>
-      </c>
-      <c r="M17" t="s">
-        <v>265</v>
+        <v>-0.006839414167127834</v>
+      </c>
+      <c r="M17">
+        <v>-0.006839414167127834</v>
       </c>
       <c r="N17">
-        <v>-0.05154082146998134</v>
+        <v>-0.0358348011466364</v>
       </c>
       <c r="O17">
-        <v>-0.05627438495321831</v>
+        <v>-0.04933776626795015</v>
       </c>
       <c r="P17">
-        <v>-0.05955886864580023</v>
+        <v>-0.05822971891826142</v>
       </c>
       <c r="Q17">
-        <v>-0.06206595169839012</v>
+        <v>-0.06487041397810389</v>
       </c>
       <c r="R17">
-        <v>-0.06409808395398359</v>
+        <v>-0.07018569189282148</v>
       </c>
       <c r="S17">
-        <v>-0.06580687397840131</v>
+        <v>-0.07459736456526922</v>
       </c>
       <c r="T17">
-        <v>-0.06728500673698438</v>
+        <v>-0.07837658923070509</v>
       </c>
       <c r="U17">
-        <v>-0.06858113773839268</v>
+        <v>-0.08168216939741199</v>
       </c>
       <c r="V17">
-        <v>-0.0697378617524738</v>
+        <v>-0.08462732945197396</v>
       </c>
       <c r="W17">
-        <v>-0.0707822759969325</v>
+        <v>-0.0872699168140027</v>
       </c>
       <c r="X17">
-        <v>-0.07173676822886385</v>
+        <v>-0.08967201096527741</v>
       </c>
       <c r="Y17">
-        <v>-0.07261118622479279</v>
+        <v>-0.09187375678573173</v>
       </c>
       <c r="Z17">
-        <v>-0.07341988890830831</v>
+        <v>-0.09391137550851292</v>
       </c>
       <c r="AA17">
-        <v>-0.07417206701552739</v>
-      </c>
-      <c r="AB17">
-        <v>-0.07430263986990944</v>
-      </c>
-      <c r="AC17">
-        <v>-0.07430263986990944</v>
+        <v>-0.09579801925859516</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>268</v>
       </c>
       <c r="AD17">
-        <v>-0.07430263986990944</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE17">
-        <v>-0.05627438495321831</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF17">
-        <v>-0.05955886864580023</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG17">
-        <v>-0.06206595169839012</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH17">
-        <v>-0.06409808395398359</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI17">
-        <v>-0.06580687397840131</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ17">
-        <v>-0.06728500673698438</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK17">
-        <v>-0.06858113773839268</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL17">
-        <v>-0.0697378617524738</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM17">
-        <v>-0.0707822759969325</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN17">
-        <v>-0.07173676822886385</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO17">
-        <v>-0.07261118622479279</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP17">
-        <v>-0.07341988890830831</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ17">
-        <v>-0.07417206701552739</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR17">
-        <v>-0.07430263986990944</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS17">
-        <v>-0.07430263986990944</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT17">
-        <v>1.032491044524855</v>
+        <v>0.2548010138476379</v>
       </c>
       <c r="AU17">
         <v>1</v>
       </c>
       <c r="AV17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:48">
@@ -6914,282 +6917,282 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
         <v>264</v>
       </c>
       <c r="E18">
-        <v>4565068</v>
+        <v>3936370</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>1.317808219178082</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>269</v>
+        <v>-0.0324383577257616</v>
+      </c>
+      <c r="M18">
+        <v>-0.04735347687172566</v>
       </c>
       <c r="N18">
-        <v>-0.006879769167127833</v>
+        <v>-0.05684977003234533</v>
       </c>
       <c r="O18">
-        <v>-0.03042383379161122</v>
+        <v>-0.06380350541693475</v>
       </c>
       <c r="P18">
-        <v>-0.04627777604339166</v>
+        <v>-0.06930289042991208</v>
       </c>
       <c r="Q18">
-        <v>-0.05609364138287103</v>
+        <v>-0.07385228498856905</v>
       </c>
       <c r="R18">
-        <v>-0.06323387216298698</v>
+        <v>-0.07774194184284311</v>
       </c>
       <c r="S18">
-        <v>-0.06884898494427927</v>
+        <v>-0.08112297055768536</v>
       </c>
       <c r="T18">
-        <v>-0.0734888257372564</v>
+        <v>-0.08411993008451954</v>
       </c>
       <c r="U18">
-        <v>-0.07742412584502591</v>
+        <v>-0.08681124424753492</v>
       </c>
       <c r="V18">
-        <v>-0.08084844453446981</v>
+        <v>-0.08925991670437683</v>
       </c>
       <c r="W18">
-        <v>-0.08387935793753658</v>
+        <v>-0.09149485678487893</v>
       </c>
       <c r="X18">
-        <v>-0.08660509306633835</v>
+        <v>-0.09355536223283148</v>
       </c>
       <c r="Y18">
-        <v>-0.0890692378143129</v>
+        <v>-0.09546670160813209</v>
       </c>
       <c r="Z18">
-        <v>-0.09132299697922586</v>
+        <v>-0.09668104431377494</v>
       </c>
       <c r="AA18">
-        <v>-0.09339948656781831</v>
-      </c>
-      <c r="AB18">
-        <v>-0.09532965697310994</v>
-      </c>
-      <c r="AC18">
-        <v>-0.09672139931377495</v>
+        <v>-0.09668104431377494</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>268</v>
       </c>
       <c r="AD18">
-        <v>-0.09672139931377495</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE18">
-        <v>-0.03042383379161122</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF18">
-        <v>-0.04627777604339166</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG18">
-        <v>-0.05609364138287103</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH18">
-        <v>-0.06323387216298698</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI18">
-        <v>-0.06884898494427927</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ18">
-        <v>-0.0734888257372564</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK18">
-        <v>-0.07742412584502591</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL18">
-        <v>-0.08084844453446981</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM18">
-        <v>-0.08387935793753658</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN18">
-        <v>-0.08660509306633835</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO18">
-        <v>-0.0890692378143129</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP18">
-        <v>-0.09132299697922586</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ18">
-        <v>-0.09339948656781831</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR18">
-        <v>-0.09532965697310994</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS18">
-        <v>-0.09672139931377495</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT18">
-        <v>0.1039114241186816</v>
+        <v>0.4693623520391121</v>
       </c>
       <c r="AU18">
         <v>1</v>
       </c>
       <c r="AV18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E19">
-        <v>1218441</v>
+        <v>60058696</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
         <v>267</v>
       </c>
-      <c r="I19" t="s">
-        <v>262</v>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>1.810958904109589</v>
       </c>
       <c r="K19" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19">
+        <v>-0.05149973146998134</v>
+      </c>
+      <c r="M19">
+        <v>-0.05623329495321831</v>
+      </c>
+      <c r="N19">
+        <v>-0.05951777864580023</v>
+      </c>
+      <c r="O19">
+        <v>-0.06202486169839012</v>
+      </c>
+      <c r="P19">
+        <v>-0.06405699395398359</v>
+      </c>
+      <c r="Q19">
+        <v>-0.0657657839784013</v>
+      </c>
+      <c r="R19">
+        <v>-0.06724391673698438</v>
+      </c>
+      <c r="S19">
+        <v>-0.06854004773839267</v>
+      </c>
+      <c r="T19">
+        <v>-0.0696967717524738</v>
+      </c>
+      <c r="U19">
+        <v>-0.07074118599693249</v>
+      </c>
+      <c r="V19">
+        <v>-0.07169567822886384</v>
+      </c>
+      <c r="W19">
+        <v>-0.07257009622479278</v>
+      </c>
+      <c r="X19">
+        <v>-0.0733787989083083</v>
+      </c>
+      <c r="Y19">
+        <v>-0.07413097701552739</v>
+      </c>
+      <c r="Z19">
+        <v>-0.07426154986990943</v>
+      </c>
+      <c r="AA19">
+        <v>-0.07426154986990943</v>
+      </c>
+      <c r="AB19" t="s">
         <v>273</v>
       </c>
-      <c r="L19">
-        <v>13.38630136986301</v>
-      </c>
-      <c r="M19" t="s">
-        <v>269</v>
-      </c>
-      <c r="N19">
-        <v>-0.04628716665981197</v>
-      </c>
-      <c r="O19">
-        <v>-0.04798509368362156</v>
-      </c>
-      <c r="P19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="Q19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="R19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="S19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="T19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="U19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="V19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="W19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="X19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="Y19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="Z19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AA19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB19">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC19">
-        <v>-0.04896253477920987</v>
+      <c r="AC19" t="s">
+        <v>273</v>
       </c>
       <c r="AD19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AE19">
-        <v>-0.04798509368362156</v>
+        <v>-0.02</v>
       </c>
       <c r="AF19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AG19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AH19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AI19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AK19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AL19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AM19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AN19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AO19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AP19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AR19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AS19">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AT19">
-        <v>0.09706730378724263</v>
+        <v>1.031623216560721</v>
       </c>
       <c r="AU19">
         <v>1</v>
@@ -7200,142 +7203,142 @@
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E20">
-        <v>60055924</v>
+        <v>4565068</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H20" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="s">
         <v>268</v>
       </c>
-      <c r="I20" t="s">
-        <v>262</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>273</v>
-      </c>
       <c r="L20">
-        <v>10.01369863013699</v>
-      </c>
-      <c r="M20" t="s">
-        <v>274</v>
+        <v>-0.006839414167127834</v>
+      </c>
+      <c r="M20">
+        <v>-0.03038347879161122</v>
       </c>
       <c r="N20">
-        <v>-0.03946400935227341</v>
+        <v>-0.04623742104339166</v>
       </c>
       <c r="O20">
-        <v>-0.04170725587089447</v>
+        <v>-0.05605328638287103</v>
       </c>
       <c r="P20">
-        <v>-0.04374958793004801</v>
+        <v>-0.06319351716298698</v>
       </c>
       <c r="Q20">
-        <v>-0.04562856661191542</v>
+        <v>-0.06880862994427928</v>
       </c>
       <c r="R20">
-        <v>-0.04736839890979524</v>
+        <v>-0.07344847073725641</v>
       </c>
       <c r="S20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0773837708450259</v>
       </c>
       <c r="T20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0808080895344698</v>
       </c>
       <c r="U20">
-        <v>-0.04896253477920987</v>
+        <v>-0.08383900293753657</v>
       </c>
       <c r="V20">
-        <v>-0.04896253477920987</v>
+        <v>-0.08656473806633835</v>
       </c>
       <c r="W20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0890288828143129</v>
       </c>
       <c r="X20">
-        <v>-0.04896253477920987</v>
+        <v>-0.09128264197922586</v>
       </c>
       <c r="Y20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0933591315678183</v>
       </c>
       <c r="Z20">
-        <v>-0.04896253477920987</v>
+        <v>-0.09528930197310995</v>
       </c>
       <c r="AA20">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB20">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC20">
-        <v>-0.04896253477920987</v>
+        <v>-0.09668104431377494</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>268</v>
       </c>
       <c r="AD20">
-        <v>-0.04896253477920987</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AE20">
-        <v>-0.04170725587089447</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AF20">
-        <v>-0.04374958793004801</v>
+        <v>-0.04942451415009008</v>
       </c>
       <c r="AG20">
-        <v>-0.04562856661191542</v>
+        <v>-0.05829170105003575</v>
       </c>
       <c r="AH20">
-        <v>-0.04736839890979524</v>
+        <v>-0.0649186306748587</v>
       </c>
       <c r="AI20">
-        <v>-0.04896253477920987</v>
+        <v>-0.07021198826768721</v>
       </c>
       <c r="AJ20">
-        <v>-0.04896253477920987</v>
+        <v>-0.07463073754048685</v>
       </c>
       <c r="AK20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0784055157235076</v>
       </c>
       <c r="AL20">
-        <v>-0.04896253477920987</v>
+        <v>-0.0817076949652264</v>
       </c>
       <c r="AM20">
-        <v>-0.04896253477920987</v>
+        <v>-0.08464255406701851</v>
       </c>
       <c r="AN20">
-        <v>-0.04896253477920987</v>
+        <v>-0.08729057751616753</v>
       </c>
       <c r="AO20">
-        <v>-0.04896253477920987</v>
+        <v>-0.08969087636760609</v>
       </c>
       <c r="AP20">
-        <v>-0.04896253477920987</v>
+        <v>-0.09189111394748059</v>
       </c>
       <c r="AQ20">
-        <v>-0.04896253477920987</v>
+        <v>-0.09392208924071052</v>
       </c>
       <c r="AR20">
-        <v>-0.04896253477920987</v>
+        <v>-0.007055633980454165</v>
       </c>
       <c r="AS20">
-        <v>-0.04896253477920987</v>
+        <v>-0.03593120529149439</v>
       </c>
       <c r="AT20">
-        <v>0.7395372742482074</v>
+        <v>0.10329770831661</v>
       </c>
       <c r="AU20">
         <v>1</v>
@@ -7349,431 +7352,431 @@
         <v>128</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>60144910</v>
+        <v>1218441</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>13.38630136986301</v>
       </c>
       <c r="K21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L21">
-        <v>7.317808219178082</v>
-      </c>
-      <c r="M21" t="s">
-        <v>265</v>
+        <v>-0.1027146823610059</v>
+      </c>
+      <c r="M21">
+        <v>-0.1044126093848155</v>
       </c>
       <c r="N21">
-        <v>-0.006647356104413221</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="O21">
-        <v>-0.008158156386945684</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="P21">
-        <v>-0.009493379801801163</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="Q21">
-        <v>-0.01069239212509018</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="R21">
-        <v>-0.01178042952012766</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="S21">
-        <v>-0.01277892143247003</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="T21">
-        <v>-0.01369684080868297</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="U21">
-        <v>-0.01454829609654285</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="V21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="W21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="X21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="Y21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="Z21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="AA21">
-        <v>-0.01509139912581338</v>
-      </c>
-      <c r="AB21">
-        <v>-0.01509139912581338</v>
-      </c>
-      <c r="AC21">
-        <v>-0.01509139912581338</v>
+        <v>-0.1053900504804038</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>275</v>
       </c>
       <c r="AD21">
-        <v>-0.01509139912581338</v>
+        <v>-0.005337839270680577</v>
       </c>
       <c r="AE21">
-        <v>-0.008158156386945684</v>
+        <v>-0.03435736029149439</v>
       </c>
       <c r="AF21">
-        <v>-0.009493379801801163</v>
+        <v>-0.04782178483187999</v>
       </c>
       <c r="AG21">
-        <v>-0.01069239212509018</v>
+        <v>-0.05669721149535373</v>
       </c>
       <c r="AH21">
-        <v>-0.01178042952012766</v>
+        <v>-0.06332872321989672</v>
       </c>
       <c r="AI21">
-        <v>-0.01277892143247003</v>
+        <v>-0.06863814326768722</v>
       </c>
       <c r="AJ21">
-        <v>-0.01369684080868297</v>
+        <v>-0.07304577289966971</v>
       </c>
       <c r="AK21">
-        <v>-0.01454829609654285</v>
+        <v>-0.07682203207849239</v>
       </c>
       <c r="AL21">
-        <v>-0.01509139912581338</v>
+        <v>-0.08012534418303374</v>
       </c>
       <c r="AM21">
-        <v>-0.01509139912581338</v>
+        <v>-0.08306870906701852</v>
       </c>
       <c r="AN21">
-        <v>-0.01509139912581338</v>
+        <v>-0.08570984741085785</v>
       </c>
       <c r="AO21">
-        <v>-0.01509139912581338</v>
+        <v>-0.08811074439712038</v>
       </c>
       <c r="AP21">
-        <v>-0.01509139912581338</v>
+        <v>-0.09031148449407503</v>
       </c>
       <c r="AQ21">
-        <v>-0.01509139912581338</v>
+        <v>-0.09234824424071052</v>
       </c>
       <c r="AR21">
-        <v>-0.01509139912581338</v>
+        <v>-0.005337839270680577</v>
       </c>
       <c r="AS21">
-        <v>-0.01509139912581338</v>
+        <v>-0.03435736029149439</v>
       </c>
       <c r="AT21">
-        <v>0.2475980482608367</v>
+        <v>0.2289454209086506</v>
       </c>
       <c r="AU21">
         <v>1</v>
       </c>
       <c r="AV21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E22">
-        <v>496678</v>
+        <v>60055924</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
-      </c>
-      <c r="I22" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>10.01369863013699</v>
       </c>
       <c r="K22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L22">
-        <v>14.62191780821918</v>
-      </c>
-      <c r="M22" t="s">
-        <v>269</v>
+        <v>-0.09589152505346732</v>
+      </c>
+      <c r="M22">
+        <v>-0.09813477157208839</v>
       </c>
       <c r="N22">
-        <v>-0.04836247008897316</v>
+        <v>-0.1001771036312419</v>
       </c>
       <c r="O22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1020560823131093</v>
       </c>
       <c r="P22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1037959146109892</v>
       </c>
       <c r="Q22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="R22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="S22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="T22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="U22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="V22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="W22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="X22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="Y22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="Z22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
       </c>
       <c r="AA22">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB22">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC22">
-        <v>-0.04896253477920987</v>
+        <v>-0.1053900504804038</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>275</v>
       </c>
       <c r="AD22">
-        <v>-0.04896253477920987</v>
+        <v>-0.03351180609758563</v>
       </c>
       <c r="AE22">
-        <v>-0.04896253477920987</v>
+        <v>-0.05501791791923884</v>
       </c>
       <c r="AF22">
-        <v>-0.04896253477920987</v>
+        <v>-0.0649962845356987</v>
       </c>
       <c r="AG22">
-        <v>-0.04896253477920987</v>
+        <v>-0.07157378518268202</v>
       </c>
       <c r="AH22">
-        <v>-0.04896253477920987</v>
+        <v>-0.07648834020212342</v>
       </c>
       <c r="AI22">
-        <v>-0.04896253477920987</v>
+        <v>-0.08042310470681709</v>
       </c>
       <c r="AJ22">
-        <v>-0.04896253477920987</v>
+        <v>-0.08368956026498636</v>
       </c>
       <c r="AK22">
-        <v>-0.04896253477920987</v>
+        <v>-0.08648811273279093</v>
       </c>
       <c r="AL22">
-        <v>-0.04896253477920987</v>
+        <v>-0.08893616828309216</v>
       </c>
       <c r="AM22">
-        <v>-0.04896253477920987</v>
+        <v>-0.09111747011372895</v>
       </c>
       <c r="AN22">
-        <v>-0.04896253477920987</v>
+        <v>-0.09307479451334001</v>
       </c>
       <c r="AO22">
-        <v>-0.04896253477920987</v>
+        <v>-0.09485407815560958</v>
       </c>
       <c r="AP22">
-        <v>-0.04896253477920987</v>
+        <v>-0.09648502728745625</v>
       </c>
       <c r="AQ22">
-        <v>-0.04896253477920987</v>
+        <v>-0.0979944520237766</v>
       </c>
       <c r="AR22">
-        <v>-0.04896253477920987</v>
+        <v>-0.03351180609758563</v>
       </c>
       <c r="AS22">
-        <v>-0.04896253477920987</v>
+        <v>-0.05501791791923884</v>
       </c>
       <c r="AT22">
-        <v>0.4573823720901941</v>
+        <v>1.909115442220014</v>
       </c>
       <c r="AU22">
         <v>1</v>
       </c>
       <c r="AV22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E23">
-        <v>596771</v>
+        <v>60144910</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
-      </c>
-      <c r="I23" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>7.317808219178082</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L23">
-        <v>13.88493150684931</v>
-      </c>
-      <c r="M23" t="s">
-        <v>269</v>
+        <v>-0.0666915518874524</v>
+      </c>
+      <c r="M23">
+        <v>-0.06820235216998487</v>
       </c>
       <c r="N23">
-        <v>-0.04714682046984989</v>
+        <v>-0.06953757558484035</v>
       </c>
       <c r="O23">
-        <v>-0.0487858486740003</v>
+        <v>-0.07073658790812937</v>
       </c>
       <c r="P23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07182462530316684</v>
       </c>
       <c r="Q23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07282311721550921</v>
       </c>
       <c r="R23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07374103659172215</v>
       </c>
       <c r="S23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07459249187958203</v>
       </c>
       <c r="T23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="U23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="V23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="W23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="X23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="Y23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="Z23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
       </c>
       <c r="AA23">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB23">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC23">
-        <v>-0.04896253477920987</v>
+        <v>-0.07513559490885256</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>274</v>
       </c>
       <c r="AD23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AE23">
-        <v>-0.0487858486740003</v>
+        <v>-0.02</v>
       </c>
       <c r="AF23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AG23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AH23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AI23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AK23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AL23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AM23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AN23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AO23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AP23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AR23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AS23">
-        <v>-0.04896253477920987</v>
+        <v>-0.02</v>
       </c>
       <c r="AT23">
-        <v>0.5442759034755772</v>
+        <v>2.643914158096395</v>
       </c>
       <c r="AU23">
         <v>1</v>
@@ -7784,148 +7787,440 @@
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E24">
-        <v>60168413</v>
+        <v>496678</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>14.62191780821918</v>
+      </c>
+      <c r="K24" t="s">
         <v>268</v>
       </c>
-      <c r="I24" t="s">
-        <v>262</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>273</v>
-      </c>
       <c r="L24">
-        <v>6.397260273972603</v>
-      </c>
-      <c r="M24" t="s">
-        <v>274</v>
+        <v>-0.1026854682901671</v>
+      </c>
+      <c r="M24">
+        <v>-0.1032855329804038</v>
       </c>
       <c r="N24">
-        <v>-0.02893151889286374</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="O24">
-        <v>-0.03235417441917252</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="P24">
-        <v>-0.03533355000116906</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="Q24">
-        <v>-0.03797741310063497</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="R24">
-        <v>-0.04035373853564519</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="S24">
-        <v>-0.04251737891437576</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="T24">
-        <v>-0.04449334803022762</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="U24">
-        <v>-0.0463160137963143</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="V24">
-        <v>-0.04800746080439115</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="W24">
-        <v>-0.04896253477920987</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="X24">
-        <v>-0.04896253477920987</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="Y24">
-        <v>-0.04896253477920987</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="Z24">
-        <v>-0.04896253477920987</v>
+        <v>-0.1032855329804038</v>
       </c>
       <c r="AA24">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AB24">
-        <v>-0.04896253477920987</v>
-      </c>
-      <c r="AC24">
-        <v>-0.04896253477920987</v>
+        <v>-0.1032855329804038</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>275</v>
       </c>
       <c r="AD24">
-        <v>-0.04896253477920987</v>
+        <v>-0.003138491770680577</v>
       </c>
       <c r="AE24">
-        <v>-0.03235417441917252</v>
+        <v>-0.03215801279149439</v>
       </c>
       <c r="AF24">
-        <v>-0.03533355000116906</v>
+        <v>-0.04562243733187999</v>
       </c>
       <c r="AG24">
-        <v>-0.03797741310063497</v>
+        <v>-0.05449786399535373</v>
       </c>
       <c r="AH24">
-        <v>-0.04035373853564519</v>
+        <v>-0.06112937571989671</v>
       </c>
       <c r="AI24">
-        <v>-0.04251737891437576</v>
+        <v>-0.06643879576768721</v>
       </c>
       <c r="AJ24">
-        <v>-0.04449334803022762</v>
+        <v>-0.0708464253996697</v>
       </c>
       <c r="AK24">
-        <v>-0.0463160137963143</v>
+        <v>-0.07462268457849239</v>
       </c>
       <c r="AL24">
-        <v>-0.04800746080439115</v>
+        <v>-0.07792599668303374</v>
       </c>
       <c r="AM24">
-        <v>-0.04896253477920987</v>
+        <v>-0.08086936156701852</v>
       </c>
       <c r="AN24">
-        <v>-0.04896253477920987</v>
+        <v>-0.08351049991085785</v>
       </c>
       <c r="AO24">
-        <v>-0.04896253477920987</v>
+        <v>-0.08591139689712038</v>
       </c>
       <c r="AP24">
-        <v>-0.04896253477920987</v>
+        <v>-0.08811213699407502</v>
       </c>
       <c r="AQ24">
-        <v>-0.04896253477920987</v>
+        <v>-0.09014889674071051</v>
       </c>
       <c r="AR24">
-        <v>-0.04896253477920987</v>
+        <v>-0.003138491770680577</v>
       </c>
       <c r="AS24">
-        <v>-0.04896253477920987</v>
+        <v>-0.03215801279149439</v>
       </c>
       <c r="AT24">
-        <v>0.3277283878667971</v>
+        <v>1.029927836842784</v>
       </c>
       <c r="AU24">
         <v>1</v>
       </c>
       <c r="AV24" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25">
+        <v>596771</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>13.88493150684931</v>
+      </c>
+      <c r="K25" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25">
+        <v>-0.1048679386710438</v>
+      </c>
+      <c r="M25">
+        <v>-0.1065069668751942</v>
+      </c>
+      <c r="N25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="O25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="P25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="Q25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="R25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="S25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="T25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="U25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="V25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="W25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="X25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="Y25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="Z25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="AA25">
+        <v>-0.1066836529804038</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD25">
+        <v>-0.006689731770680577</v>
+      </c>
+      <c r="AE25">
+        <v>-0.03570925279149439</v>
+      </c>
+      <c r="AF25">
+        <v>-0.04917367733187999</v>
+      </c>
+      <c r="AG25">
+        <v>-0.05804910399535373</v>
+      </c>
+      <c r="AH25">
+        <v>-0.06468061571989671</v>
+      </c>
+      <c r="AI25">
+        <v>-0.06999003576768721</v>
+      </c>
+      <c r="AJ25">
+        <v>-0.0743976653996697</v>
+      </c>
+      <c r="AK25">
+        <v>-0.07817392457849238</v>
+      </c>
+      <c r="AL25">
+        <v>-0.08147723668303374</v>
+      </c>
+      <c r="AM25">
+        <v>-0.08442060156701851</v>
+      </c>
+      <c r="AN25">
+        <v>-0.08706173991085785</v>
+      </c>
+      <c r="AO25">
+        <v>-0.08946263689712038</v>
+      </c>
+      <c r="AP25">
+        <v>-0.09166337699407502</v>
+      </c>
+      <c r="AQ25">
+        <v>-0.09370013674071051</v>
+      </c>
+      <c r="AR25">
+        <v>-0.006689731770680577</v>
+      </c>
+      <c r="AS25">
+        <v>-0.03570925279149439</v>
+      </c>
+      <c r="AT25">
+        <v>1.288689541148677</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26">
+        <v>60168413</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>263</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>6.397260273972603</v>
+      </c>
+      <c r="K26" t="s">
+        <v>269</v>
+      </c>
+      <c r="L26">
+        <v>-0.09026313959405764</v>
+      </c>
+      <c r="M26">
+        <v>-0.09368579512036643</v>
+      </c>
+      <c r="N26">
+        <v>-0.09666517070236297</v>
+      </c>
+      <c r="O26">
+        <v>-0.09930903380182887</v>
+      </c>
+      <c r="P26">
+        <v>-0.1016853592368391</v>
+      </c>
+      <c r="Q26">
+        <v>-0.1038489996155697</v>
+      </c>
+      <c r="R26">
+        <v>-0.1058249687314215</v>
+      </c>
+      <c r="S26">
+        <v>-0.1076476344975082</v>
+      </c>
+      <c r="T26">
+        <v>-0.1093390815055851</v>
+      </c>
+      <c r="U26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="V26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="W26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="X26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="Y26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="Z26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="AA26">
+        <v>-0.1102941554804038</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD26">
+        <v>-0.03841591109758563</v>
+      </c>
+      <c r="AE26">
+        <v>-0.05992202291923884</v>
+      </c>
+      <c r="AF26">
+        <v>-0.06990038953569869</v>
+      </c>
+      <c r="AG26">
+        <v>-0.07647789018268202</v>
+      </c>
+      <c r="AH26">
+        <v>-0.08139244520212341</v>
+      </c>
+      <c r="AI26">
+        <v>-0.08532720970681708</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.08859366526498635</v>
+      </c>
+      <c r="AK26">
+        <v>-0.09139221773279092</v>
+      </c>
+      <c r="AL26">
+        <v>-0.09384027328309215</v>
+      </c>
+      <c r="AM26">
+        <v>-0.09602157511372894</v>
+      </c>
+      <c r="AN26">
+        <v>-0.09797889951334</v>
+      </c>
+      <c r="AO26">
+        <v>-0.09975818315560957</v>
+      </c>
+      <c r="AP26">
+        <v>-0.1013891322874562</v>
+      </c>
+      <c r="AQ26">
+        <v>-0.1028985570237766</v>
+      </c>
+      <c r="AR26">
+        <v>-0.03841591109758563</v>
+      </c>
+      <c r="AS26">
+        <v>-0.05992202291923884</v>
+      </c>
+      <c r="AT26">
+        <v>1.091408492661917</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7949,34 +8244,34 @@
         <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7987,34 +8282,34 @@
         <v>121</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>7.598066075745367</v>
+        <v>6.745205479452054</v>
       </c>
       <c r="E2">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="F2">
-        <v>18.61096798750696</v>
+        <v>19.13352927604199</v>
       </c>
       <c r="G2">
-        <v>8.084861234691942</v>
+        <v>8.608294159342201</v>
       </c>
       <c r="H2">
-        <v>23.56168519065077</v>
+        <v>28.18210708233816</v>
       </c>
       <c r="I2">
-        <v>-0.04740307710430334</v>
+        <v>-0.04347210108603623</v>
       </c>
       <c r="J2">
-        <v>-0.02115985754726329</v>
+        <v>-0.02003754181745238</v>
       </c>
       <c r="K2">
-        <v>-0.05926548273723047</v>
+        <v>-0.06274093878181169</v>
       </c>
       <c r="L2">
-        <v>0.03810562518996718</v>
+        <v>0.04270339696435932</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8022,34 +8317,34 @@
         <v>121</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>7.598066075745367</v>
+        <v>6.745205479452054</v>
       </c>
       <c r="E3">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="F3">
-        <v>18.61096798750696</v>
+        <v>19.13352927604199</v>
       </c>
       <c r="G3">
-        <v>8.084861234691942</v>
+        <v>8.608294159342201</v>
       </c>
       <c r="H3">
-        <v>23.56168519065077</v>
+        <v>28.18210708233816</v>
       </c>
       <c r="I3">
-        <v>-0.04740307710430334</v>
+        <v>-0.04347210108603623</v>
       </c>
       <c r="J3">
-        <v>-0.02115985754726329</v>
+        <v>-0.02003754181745238</v>
       </c>
       <c r="K3">
-        <v>-0.05926548273723047</v>
+        <v>-0.06274093878181169</v>
       </c>
       <c r="L3">
-        <v>0.003810562518996718</v>
+        <v>0.004270339696435932</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8069,25 +8364,25 @@
         <v>57</v>
       </c>
       <c r="F4">
-        <v>1.084202626296287</v>
+        <v>4.781975021225058</v>
       </c>
       <c r="G4">
-        <v>-1.500794016310565</v>
+        <v>1.868929498732574</v>
       </c>
       <c r="H4">
-        <v>1.253461749898436</v>
+        <v>4.973719749254835</v>
       </c>
       <c r="I4">
-        <v>-0.01866604992878802</v>
+        <v>-0.077400811799594</v>
       </c>
       <c r="J4">
-        <v>0.02704172050230108</v>
+        <v>-0.03174729886625188</v>
       </c>
       <c r="K4">
-        <v>-0.02151737789043278</v>
+        <v>-0.0802553044964618</v>
       </c>
       <c r="L4">
-        <v>0.04855909839273385</v>
+        <v>0.04850800563020993</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8104,25 +8399,25 @@
         <v>57</v>
       </c>
       <c r="F5">
-        <v>1.084202626296287</v>
+        <v>4.781975021225058</v>
       </c>
       <c r="G5">
-        <v>-1.500794016310565</v>
+        <v>1.868929498732574</v>
       </c>
       <c r="H5">
-        <v>1.253461749898436</v>
+        <v>4.973719749254835</v>
       </c>
       <c r="I5">
-        <v>-0.01866604992878802</v>
+        <v>-0.077400811799594</v>
       </c>
       <c r="J5">
-        <v>0.02704172050230108</v>
+        <v>-0.03174729886625188</v>
       </c>
       <c r="K5">
-        <v>-0.02151737789043278</v>
+        <v>-0.0802553044964618</v>
       </c>
       <c r="L5">
-        <v>0.004855909839273385</v>
+        <v>0.004850800563020992</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8142,22 +8437,22 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>0.4573823720901941</v>
+        <v>1.029927836842784</v>
       </c>
       <c r="G6">
-        <v>-0.2704812482519116</v>
+        <v>0.2150642028203688</v>
       </c>
       <c r="H6">
-        <v>0.3806545244385445</v>
+        <v>0.943671009345259</v>
       </c>
       <c r="I6">
-        <v>-0.04836247008897316</v>
+        <v>-0.1026854682901671</v>
       </c>
       <c r="J6">
-        <v>0.030984668908323</v>
+        <v>-0.02333832929287091</v>
       </c>
       <c r="K6">
-        <v>-0.04057867427553811</v>
+        <v>-0.09490167247673202</v>
       </c>
       <c r="L6">
         <v>0.07156334318386111</v>
@@ -8177,22 +8472,22 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>0.4573823720901941</v>
+        <v>1.029927836842784</v>
       </c>
       <c r="G7">
-        <v>-0.2704812482519116</v>
+        <v>0.2150642028203688</v>
       </c>
       <c r="H7">
-        <v>0.3806545244385445</v>
+        <v>0.943671009345259</v>
       </c>
       <c r="I7">
-        <v>-0.04836247008897316</v>
+        <v>-0.1026854682901671</v>
       </c>
       <c r="J7">
-        <v>0.030984668908323</v>
+        <v>-0.02333832929287091</v>
       </c>
       <c r="K7">
-        <v>-0.04057867427553811</v>
+        <v>-0.09490167247673202</v>
       </c>
       <c r="L7">
         <v>0.007156334318386111</v>
@@ -8215,25 +8510,25 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>0.5442759034755772</v>
+        <v>1.288689541148677</v>
       </c>
       <c r="G8">
-        <v>-0.3305881923078919</v>
+        <v>0.3021801669320706</v>
       </c>
       <c r="H8">
-        <v>0.4652444187582211</v>
+        <v>1.199176520336056</v>
       </c>
       <c r="I8">
-        <v>-0.04714682046984989</v>
+        <v>-0.1048679386710438</v>
       </c>
       <c r="J8">
-        <v>0.030984668908323</v>
+        <v>-0.02673644929287091</v>
       </c>
       <c r="K8">
-        <v>-0.04057867427553811</v>
+        <v>-0.09829979247673203</v>
       </c>
       <c r="L8">
-        <v>0.07156334318386111</v>
+        <v>0.07156334318386112</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8250,25 +8545,25 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.5442759034755772</v>
+        <v>1.288689541148677</v>
       </c>
       <c r="G9">
-        <v>-0.3305881923078919</v>
+        <v>0.3021801669320706</v>
       </c>
       <c r="H9">
-        <v>0.4652444187582211</v>
+        <v>1.199176520336056</v>
       </c>
       <c r="I9">
-        <v>-0.04714682046984989</v>
+        <v>-0.1048679386710438</v>
       </c>
       <c r="J9">
-        <v>0.030984668908323</v>
+        <v>-0.02673644929287091</v>
       </c>
       <c r="K9">
-        <v>-0.04057867427553811</v>
+        <v>-0.09829979247673203</v>
       </c>
       <c r="L9">
-        <v>0.007156334318386111</v>
+        <v>0.007156334318386112</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8288,25 +8583,25 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0.3277283878667971</v>
+        <v>1.091408492661917</v>
       </c>
       <c r="G10">
-        <v>-0.3305881923078919</v>
+        <v>0.3442638274987127</v>
       </c>
       <c r="H10">
-        <v>0.4652444187582211</v>
+        <v>1.248219680588598</v>
       </c>
       <c r="I10">
-        <v>-0.02893151889286373</v>
+        <v>-0.09026313959405763</v>
       </c>
       <c r="J10">
-        <v>0.030984668908323</v>
+        <v>-0.03034695179287091</v>
       </c>
       <c r="K10">
-        <v>-0.04057867427553811</v>
+        <v>-0.101910294976732</v>
       </c>
       <c r="L10">
-        <v>0.07156334318386111</v>
+        <v>0.07156334318386109</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8323,25 +8618,25 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>0.3277283878667971</v>
+        <v>1.091408492661917</v>
       </c>
       <c r="G11">
-        <v>-0.3305881923078919</v>
+        <v>0.3442638274987127</v>
       </c>
       <c r="H11">
-        <v>0.4652444187582211</v>
+        <v>1.248219680588598</v>
       </c>
       <c r="I11">
-        <v>-0.02893151889286373</v>
+        <v>-0.09026313959405763</v>
       </c>
       <c r="J11">
-        <v>0.030984668908323</v>
+        <v>-0.03034695179287091</v>
       </c>
       <c r="K11">
-        <v>-0.04057867427553811</v>
+        <v>-0.101910294976732</v>
       </c>
       <c r="L11">
-        <v>0.007156334318386111</v>
+        <v>0.007156334318386109</v>
       </c>
     </row>
   </sheetData>
@@ -8371,37 +8666,37 @@
         <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -8415,13 +8710,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8462,22 +8757,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>0.5</v>
@@ -8486,16 +8781,16 @@
         <v>10.5</v>
       </c>
       <c r="L3">
-        <v>-0.02698744679287091</v>
+        <v>-0.02694883179287091</v>
       </c>
       <c r="M3">
-        <v>-0.09855078997673201</v>
+        <v>-0.09851217497673202</v>
       </c>
       <c r="N3">
-        <v>1.69189415793147</v>
+        <v>1.966358111279246</v>
       </c>
       <c r="O3">
-        <v>6.66881519417548</v>
+        <v>7.75868983385044</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8509,22 +8804,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -8533,16 +8828,16 @@
         <v>10.5</v>
       </c>
       <c r="L4">
-        <v>-0.006879769167127833</v>
+        <v>-0.006839414167127834</v>
       </c>
       <c r="M4">
-        <v>-0.0872999353997166</v>
+        <v>-0.0872595803997166</v>
       </c>
       <c r="N4">
-        <v>0.4572102661221988</v>
+        <v>0.7093109304407218</v>
       </c>
       <c r="O4">
-        <v>6.312912598406215</v>
+        <v>9.846980136046579</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8556,13 +8851,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8580,16 +8875,16 @@
         <v>10.5</v>
       </c>
       <c r="L5">
-        <v>-0.02698744679287091</v>
+        <v>-0.02694883179287091</v>
       </c>
       <c r="M5">
-        <v>-0.09855078997673201</v>
+        <v>-0.09851217497673202</v>
       </c>
       <c r="N5">
-        <v>1.164910731690521</v>
+        <v>1.163197755968005</v>
       </c>
       <c r="O5">
-        <v>4.591643248448691</v>
+        <v>4.589647507348148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -8603,13 +8898,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -8627,16 +8922,16 @@
         <v>10.5</v>
       </c>
       <c r="L6">
-        <v>-0.03676486749018744</v>
+        <v>-0.03672377749018744</v>
       </c>
       <c r="M6">
-        <v>-0.07258299386925757</v>
+        <v>-0.07254190386925756</v>
       </c>
       <c r="N6">
-        <v>0.4961854704438616</v>
+        <v>0.4956097702988547</v>
       </c>
       <c r="O6">
-        <v>1.017426803760085</v>
+        <v>1.016805777247114</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -8650,13 +8945,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8674,16 +8969,16 @@
         <v>10.5</v>
       </c>
       <c r="L7">
-        <v>-0.0376846910979732</v>
+        <v>-0.0376436010979732</v>
       </c>
       <c r="M7">
-        <v>-0.07046260844574109</v>
+        <v>-0.07042151844574109</v>
       </c>
       <c r="N7">
-        <v>0.7440483636059328</v>
+        <v>0.7432053464574147</v>
       </c>
       <c r="O7">
-        <v>1.44027510096234</v>
+        <v>1.439371582947923</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8697,13 +8992,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8721,16 +9016,16 @@
         <v>10.5</v>
       </c>
       <c r="L8">
-        <v>0.030984668908323</v>
+        <v>-0.02544284679287091</v>
       </c>
       <c r="M8">
-        <v>-0.04057867427553811</v>
+        <v>-0.09700618997673202</v>
       </c>
       <c r="N8">
-        <v>-0.06010694405598035</v>
+        <v>0.05221417073209533</v>
       </c>
       <c r="O8">
-        <v>0.08458989431967656</v>
+        <v>0.2148546067535776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -8744,13 +9039,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8768,16 +9063,16 @@
         <v>10.5</v>
       </c>
       <c r="L9">
-        <v>0.030984668908323</v>
+        <v>-0.02544284679287091</v>
       </c>
       <c r="M9">
-        <v>-0.04057867427553811</v>
+        <v>-0.09700618997673202</v>
       </c>
       <c r="N9">
-        <v>-0.5409624965038232</v>
+        <v>0.4699275365888579</v>
       </c>
       <c r="O9">
-        <v>0.7613090488770891</v>
+        <v>1.933691460782199</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -8791,13 +9086,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8815,16 +9110,16 @@
         <v>10.5</v>
       </c>
       <c r="L10">
-        <v>0.02492292829285174</v>
+        <v>-0.03512126749018744</v>
       </c>
       <c r="M10">
-        <v>-0.01089519808621839</v>
+        <v>-0.07093939386925757</v>
       </c>
       <c r="N10">
-        <v>-0.8997245757507616</v>
+        <v>1.346787791411621</v>
       </c>
       <c r="O10">
-        <v>0.4075628067016702</v>
+        <v>2.825173681719059</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -8838,13 +9133,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8862,16 +9157,16 @@
         <v>10.5</v>
       </c>
       <c r="L11">
-        <v>0.030984668908323</v>
+        <v>-0.02333832929287091</v>
       </c>
       <c r="M11">
-        <v>-0.04057867427553811</v>
+        <v>-0.09490167247673202</v>
       </c>
       <c r="N11">
-        <v>-0.2704812482519116</v>
+        <v>0.2150642028203688</v>
       </c>
       <c r="O11">
-        <v>0.3806545244385445</v>
+        <v>0.943671009345259</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -8885,13 +9180,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8909,16 +9204,16 @@
         <v>10.5</v>
       </c>
       <c r="L12">
-        <v>0.030984668908323</v>
+        <v>-0.02673644929287091</v>
       </c>
       <c r="M12">
-        <v>-0.04057867427553811</v>
+        <v>-0.09829979247673203</v>
       </c>
       <c r="N12">
-        <v>-0.3305881923078919</v>
+        <v>0.3021801669320706</v>
       </c>
       <c r="O12">
-        <v>0.4652444187582211</v>
+        <v>1.199176520336056</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -8932,13 +9227,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8956,16 +9251,16 @@
         <v>10.5</v>
       </c>
       <c r="L13">
-        <v>0.030984668908323</v>
+        <v>-0.03034695179287091</v>
       </c>
       <c r="M13">
-        <v>-0.04057867427553811</v>
+        <v>-0.101910294976732</v>
       </c>
       <c r="N13">
-        <v>-0.3305881923078919</v>
+        <v>0.3442638274987127</v>
       </c>
       <c r="O13">
-        <v>0.4652444187582211</v>
+        <v>1.248219680588598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v4.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="FLUJO E1" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_Tarifas" sheetId="2" r:id="rId2"/>
-    <sheet name="BBDD - Error Actual" sheetId="3" r:id="rId3"/>
-    <sheet name="Resultados loc" sheetId="4" r:id="rId4"/>
-    <sheet name="Inicial y final" sheetId="5" r:id="rId5"/>
+    <sheet name="PARAMETROS GLOBALES" sheetId="3" r:id="rId3"/>
+    <sheet name="BBDD - Error Actual" sheetId="4" r:id="rId4"/>
+    <sheet name="Resultados loc" sheetId="5" r:id="rId5"/>
+    <sheet name="Inicial y final" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="302">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -588,6 +589,24 @@
   </si>
   <si>
     <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>Para cálculo de VAN</t>
+  </si>
+  <si>
+    <t>Para cálculo de impuesto</t>
   </si>
   <si>
     <t>LOCALIDAD</t>
@@ -4421,6 +4440,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3">
+        <v>0.27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4429,148 +4494,148 @@
   <sheetData>
     <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -4581,10 +4646,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E2">
         <v>345317</v>
@@ -4596,7 +4661,7 @@
         <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4605,7 +4670,7 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L2">
         <v>-0.02</v>
@@ -4656,10 +4721,10 @@
         <v>-0.02</v>
       </c>
       <c r="AB2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AC2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AD2">
         <v>-0.02</v>
@@ -4716,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -4727,10 +4792,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E3">
         <v>941780</v>
@@ -4742,7 +4807,7 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4751,7 +4816,7 @@
         <v>1.526027397260274</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L3">
         <v>-0.02</v>
@@ -4802,10 +4867,10 @@
         <v>-0.02</v>
       </c>
       <c r="AB3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AC3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AD3">
         <v>-0.02</v>
@@ -4862,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AV3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:48">
@@ -4873,10 +4938,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E4">
         <v>941731</v>
@@ -4888,7 +4953,7 @@
         <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4897,7 +4962,7 @@
         <v>1.73972602739726</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L4">
         <v>-0.02</v>
@@ -4948,10 +5013,10 @@
         <v>-0.02</v>
       </c>
       <c r="AB4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AC4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AD4">
         <v>-0.02</v>
@@ -5008,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:48">
@@ -5019,10 +5084,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>60274432</v>
@@ -5034,7 +5099,7 @@
         <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5043,7 +5108,7 @@
         <v>1.605479452054795</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L5">
         <v>-0.05044820843475818</v>
@@ -5094,10 +5159,10 @@
         <v>-0.07673810490885255</v>
       </c>
       <c r="AB5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AD5">
         <v>-0.02</v>
@@ -5154,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:48">
@@ -5165,10 +5230,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E6">
         <v>1252181</v>
@@ -5180,7 +5245,7 @@
         <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5189,7 +5254,7 @@
         <v>12.74794520547945</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L6">
         <v>-0.1030721411695989</v>
@@ -5240,10 +5305,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD6">
         <v>-0.007055633980454165</v>
@@ -5300,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="AV6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:48">
@@ -5311,10 +5376,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E7">
         <v>60209133</v>
@@ -5326,7 +5391,7 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5335,7 +5400,7 @@
         <v>4.128767123287671</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L7">
         <v>-0.07657212719142525</v>
@@ -5386,10 +5451,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD7">
         <v>-0.03512447096155945</v>
@@ -5446,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AV7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:48">
@@ -5457,10 +5522,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E8">
         <v>413560</v>
@@ -5472,7 +5537,7 @@
         <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5481,7 +5546,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L8">
         <v>-0.1068960354804038</v>
@@ -5532,10 +5597,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD8">
         <v>-0.007055633980454165</v>
@@ -5592,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="AV8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:48">
@@ -5603,10 +5668,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E9">
         <v>60177677</v>
@@ -5618,7 +5683,7 @@
         <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5627,7 +5692,7 @@
         <v>5.515068493150685</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L9">
         <v>-0.08337712283132148</v>
@@ -5678,10 +5743,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD9">
         <v>-0.03512447096155945</v>
@@ -5738,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -5749,10 +5814,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E10">
         <v>3892942</v>
@@ -5764,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5773,7 +5838,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L10">
         <v>-0.1068960354804038</v>
@@ -5824,10 +5889,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC10" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD10">
         <v>-0.03512447096155945</v>
@@ -5884,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:48">
@@ -5895,10 +5960,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E11">
         <v>457415</v>
@@ -5910,7 +5975,7 @@
         <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5919,7 +5984,7 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L11">
         <v>-0.1068960354804038</v>
@@ -5970,10 +6035,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC11" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD11">
         <v>-0.007055633980454165</v>
@@ -6030,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:48">
@@ -6041,10 +6106,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E12">
         <v>1310176</v>
@@ -6056,7 +6121,7 @@
         <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6065,7 +6130,7 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L12">
         <v>-0.1068960354804038</v>
@@ -6116,10 +6181,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB12" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD12">
         <v>-0.007055633980454165</v>
@@ -6176,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="AV12" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:48">
@@ -6187,10 +6252,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>13101760</v>
@@ -6202,7 +6267,7 @@
         <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6211,7 +6276,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L13">
         <v>-0.02694883179287091</v>
@@ -6262,10 +6327,10 @@
         <v>-0.1061102596231267</v>
       </c>
       <c r="AB13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD13">
         <v>-0.007055633980454165</v>
@@ -6322,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="AV13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -6333,10 +6398,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E14">
         <v>406049</v>
@@ -6348,7 +6413,7 @@
         <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6357,7 +6422,7 @@
         <v>12.47123287671233</v>
       </c>
       <c r="K14" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L14">
         <v>-0.1025562994685768</v>
@@ -6408,10 +6473,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC14" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD14">
         <v>-0.007055633980454165</v>
@@ -6468,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:48">
@@ -6479,10 +6544,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E15">
         <v>4520541</v>
@@ -6494,7 +6559,7 @@
         <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6503,7 +6568,7 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L15">
         <v>-0.1068960354804038</v>
@@ -6554,10 +6619,10 @@
         <v>-0.1068960354804038</v>
       </c>
       <c r="AB15" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC15" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD15">
         <v>-0.007055633980454165</v>
@@ -6614,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="AV15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:48">
@@ -6625,10 +6690,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E16">
         <v>1395912</v>
@@ -6640,7 +6705,7 @@
         <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6649,7 +6714,7 @@
         <v>1.334246575342466</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L16">
         <v>-0.03276581695706982</v>
@@ -6700,10 +6765,10 @@
         <v>-0.09668104431377494</v>
       </c>
       <c r="AB16" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC16" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AD16">
         <v>-0.007055633980454165</v>
@@ -6760,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="AV16" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:48">
@@ -6771,10 +6836,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E17">
         <v>13959120</v>
@@ -6786,7 +6851,7 @@
         <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6795,7 +6860,7 @@
         <v>0.5</v>
       </c>
       <c r="K17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L17">
         <v>-0.006839414167127834</v>
@@ -6846,10 +6911,10 @@
         <v>-0.09579801925859516</v>
       </c>
       <c r="AB17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AD17">
         <v>-0.007055633980454165</v>
@@ -6906,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="AV17" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:48">
@@ -6917,10 +6982,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E18">
         <v>3936370</v>
@@ -6932,7 +6997,7 @@
         <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -6941,7 +7006,7 @@
         <v>1.317808219178082</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L18">
         <v>-0.0324383577257616</v>
@@ -6992,10 +7057,10 @@
         <v>-0.09668104431377494</v>
       </c>
       <c r="AB18" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC18" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AD18">
         <v>-0.007055633980454165</v>
@@ -7052,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="AV18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:48">
@@ -7063,10 +7128,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E19">
         <v>60058696</v>
@@ -7078,7 +7143,7 @@
         <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7087,7 +7152,7 @@
         <v>1.810958904109589</v>
       </c>
       <c r="K19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L19">
         <v>-0.05149973146998134</v>
@@ -7138,10 +7203,10 @@
         <v>-0.07426154986990943</v>
       </c>
       <c r="AB19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AC19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AD19">
         <v>-0.02</v>
@@ -7198,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AV19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:48">
@@ -7209,10 +7274,10 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E20">
         <v>4565068</v>
@@ -7224,7 +7289,7 @@
         <v>121</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7233,7 +7298,7 @@
         <v>0.5</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L20">
         <v>-0.006839414167127834</v>
@@ -7284,10 +7349,10 @@
         <v>-0.09668104431377494</v>
       </c>
       <c r="AB20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AD20">
         <v>-0.007055633980454165</v>
@@ -7344,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="AV20" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:48">
@@ -7355,10 +7420,10 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E21">
         <v>1218441</v>
@@ -7370,7 +7435,7 @@
         <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7379,7 +7444,7 @@
         <v>13.38630136986301</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L21">
         <v>-0.1027146823610059</v>
@@ -7430,10 +7495,10 @@
         <v>-0.1053900504804038</v>
       </c>
       <c r="AB21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC21" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD21">
         <v>-0.005337839270680577</v>
@@ -7490,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AV21" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:48">
@@ -7501,10 +7566,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E22">
         <v>60055924</v>
@@ -7516,7 +7581,7 @@
         <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7525,7 +7590,7 @@
         <v>10.01369863013699</v>
       </c>
       <c r="K22" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L22">
         <v>-0.09589152505346732</v>
@@ -7576,10 +7641,10 @@
         <v>-0.1053900504804038</v>
       </c>
       <c r="AB22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC22" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD22">
         <v>-0.03351180609758563</v>
@@ -7636,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="AV22" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:48">
@@ -7647,10 +7712,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>60144910</v>
@@ -7662,7 +7727,7 @@
         <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7671,7 +7736,7 @@
         <v>7.317808219178082</v>
       </c>
       <c r="K23" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L23">
         <v>-0.0666915518874524</v>
@@ -7722,10 +7787,10 @@
         <v>-0.07513559490885256</v>
       </c>
       <c r="AB23" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AC23" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AD23">
         <v>-0.02</v>
@@ -7782,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="AV23" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -7793,10 +7858,10 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E24">
         <v>496678</v>
@@ -7808,7 +7873,7 @@
         <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7817,7 +7882,7 @@
         <v>14.62191780821918</v>
       </c>
       <c r="K24" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L24">
         <v>-0.1026854682901671</v>
@@ -7868,10 +7933,10 @@
         <v>-0.1032855329804038</v>
       </c>
       <c r="AB24" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC24" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD24">
         <v>-0.003138491770680577</v>
@@ -7928,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:48">
@@ -7939,10 +8004,10 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E25">
         <v>596771</v>
@@ -7954,7 +8019,7 @@
         <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7963,7 +8028,7 @@
         <v>13.88493150684931</v>
       </c>
       <c r="K25" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L25">
         <v>-0.1048679386710438</v>
@@ -8014,10 +8079,10 @@
         <v>-0.1066836529804038</v>
       </c>
       <c r="AB25" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AC25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD25">
         <v>-0.006689731770680577</v>
@@ -8074,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="AV25" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:48">
@@ -8085,10 +8150,10 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E26">
         <v>60168413</v>
@@ -8100,7 +8165,7 @@
         <v>114</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8109,7 +8174,7 @@
         <v>6.397260273972603</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L26">
         <v>-0.09026313959405764</v>
@@ -8160,10 +8225,10 @@
         <v>-0.1102941554804038</v>
       </c>
       <c r="AB26" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC26" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AD26">
         <v>-0.03841591109758563</v>
@@ -8220,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="AV26" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8228,7 +8293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -8238,40 +8303,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8644,7 +8709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -8654,49 +8719,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -8710,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -8757,13 +8822,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -8804,13 +8869,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8851,13 +8916,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8898,13 +8963,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -8945,13 +9010,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8992,13 +9057,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -9039,13 +9104,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -9086,13 +9151,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -9133,13 +9198,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9180,13 +9245,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9227,13 +9292,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G13">
         <v>1</v>
